--- a/tests/regression_data/performance_analysis_evaluate_cascade_critical.xlsx
+++ b/tests/regression_data/performance_analysis_evaluate_cascade_critical.xlsx
@@ -688,40 +688,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015427047891746</v>
+        <v>2.015427046681749</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999569454</v>
+        <v>2.300000000015352</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740246984524617</v>
+        <v>2.740246987333656</v>
       </c>
       <c r="E2" t="n">
-        <v>92.5582341510792</v>
+        <v>92.55823415941235</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08749268520222</v>
+        <v>79.08749261395653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455380127919166</v>
+        <v>0.1455380136385842</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23303069799414</v>
+        <v>-78.23303062759511</v>
       </c>
       <c r="I2" t="n">
-        <v>136184.1925396334</v>
+        <v>136184.1925565553</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70263831569356</v>
+        <v>83.70263832609423</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35331162760778</v>
+        <v>-24.35331184610825</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2439387420475</v>
+        <v>135.2439391354384</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -736,13 +736,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372086.6508123134</v>
+        <v>372086.6508570834</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7159934124677504</v>
+        <v>0.7159934128347342</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -759,40 +759,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069523116694084</v>
+        <v>2.06952311572781</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000155851</v>
+        <v>2.400000000021857</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742649139401929</v>
+        <v>2.742649139994791</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53013774212164</v>
+        <v>92.5301377510022</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20472735418275</v>
+        <v>78.2047273218033</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548188594278691</v>
+        <v>0.1548188598589191</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35954621361061</v>
+        <v>-77.35954618166222</v>
       </c>
       <c r="I3" t="n">
-        <v>140842.5888752649</v>
+        <v>140842.5888473964</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56581983728638</v>
+        <v>86.56581982015759</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84261412290711</v>
+        <v>-26.84261426585801</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5910607370027</v>
+        <v>142.5910609355053</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -807,13 +807,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370431.6762458841</v>
+        <v>370431.6762671459</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036644337195532</v>
+        <v>0.7036644337956068</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63109372576433</v>
+        <v>80.63109384161402</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63109372576433</v>
+        <v>80.63109384161402</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63109372576433</v>
+        <v>80.63109384161402</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63109372576433</v>
+        <v>80.63109384161402</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3103,97 +3103,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3588221715445</v>
+        <v>292.35882216213</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.5732903177</v>
+        <v>132782.5732753715</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583021137566764</v>
+        <v>1.583021137439658</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.5275918996</v>
+        <v>334654.5275851647</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.7444508832</v>
+        <v>418533.7444414418</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687435.5157003246</v>
+        <v>-687435.5156741511</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131970944413</v>
+        <v>717.713197094015</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647996703266</v>
+        <v>1006.647996702771</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576963581742</v>
+        <v>1.402576963581886</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980090679909</v>
+        <v>0.9994980090679251</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9119532923604</v>
+        <v>342.911953286834</v>
       </c>
       <c r="W2" t="n">
-        <v>186145.251543214</v>
+        <v>186145.2515222679</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372148855313927e-06</v>
+        <v>5.37214885591843e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.6040627513</v>
+        <v>132716.6040478038</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534852229395336e-06</v>
+        <v>7.534852230243969e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433385359102383</v>
+        <v>0.003433385359212766</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817172138322419e-05</v>
+        <v>1.817172138276355e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582478594465109</v>
+        <v>0.02582478594394155</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.5732903177</v>
+        <v>132782.5732753715</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583021137566764</v>
+        <v>1.583021137439658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583021137566764</v>
+        <v>1.583021137439658</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.5275918996</v>
+        <v>334654.5275851647</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.7444508832</v>
+        <v>418533.7444414418</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131970944413</v>
+        <v>717.713197094015</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647996703266</v>
+        <v>1006.647996702771</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9119532923604</v>
+        <v>342.911953286834</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980090679909</v>
+        <v>0.9994980090679251</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817172138322419e-05</v>
+        <v>1.817172138276355e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582478594465109</v>
+        <v>0.02582478594394155</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3382,16 +3382,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2351364335702225</v>
+        <v>0.2351364339118529</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2351364335702225</v>
+        <v>0.2351364339118529</v>
       </c>
       <c r="DB2" t="n">
-        <v>183751.5177695256</v>
+        <v>183751.5180234414</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.740246983659243</v>
+        <v>2.74024698737637</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3400,343 +3400,343 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>268.7000957734001</v>
+        <v>268.700094887286</v>
       </c>
       <c r="DG2" t="n">
-        <v>110.61253982201</v>
+        <v>110.6125396683755</v>
       </c>
       <c r="DH2" t="n">
-        <v>244.8767189888794</v>
+        <v>244.8767180859555</v>
       </c>
       <c r="DI2" t="n">
-        <v>65.69097058095267</v>
+        <v>65.69097053155019</v>
       </c>
       <c r="DJ2" t="n">
-        <v>268.7000957734001</v>
+        <v>268.700094887286</v>
       </c>
       <c r="DK2" t="n">
-        <v>110.61253982201</v>
+        <v>110.6125396683755</v>
       </c>
       <c r="DL2" t="n">
-        <v>244.8767189888794</v>
+        <v>244.8767180859555</v>
       </c>
       <c r="DM2" t="n">
-        <v>65.69097058095267</v>
+        <v>65.69097053155019</v>
       </c>
       <c r="DN2" t="n">
-        <v>259.5768823054209</v>
+        <v>259.5768825432814</v>
       </c>
       <c r="DO2" t="n">
-        <v>85923.81069337031</v>
+        <v>85923.81096172887</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.153944444239236</v>
+        <v>1.153944446784584</v>
       </c>
       <c r="DQ2" t="n">
-        <v>311223.600710551</v>
+        <v>311223.6008805245</v>
       </c>
       <c r="DR2" t="n">
-        <v>385684.5603540784</v>
+        <v>385684.5605923649</v>
       </c>
       <c r="DS2" t="n">
-        <v>3788.609748060263</v>
+        <v>3788.609748082334</v>
       </c>
       <c r="DT2" t="n">
-        <v>-597750.9463193307</v>
+        <v>-597750.9469879341</v>
       </c>
       <c r="DU2" t="n">
-        <v>716.537457384595</v>
+        <v>716.5374573909594</v>
       </c>
       <c r="DV2" t="n">
-        <v>1005.204882821675</v>
+        <v>1005.204882829564</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.402864389659033</v>
+        <v>1.402864389657582</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.9993241596278499</v>
+        <v>0.9993241596289447</v>
       </c>
       <c r="DY2" t="n">
-        <v>323.0917879612394</v>
+        <v>323.0917881094592</v>
       </c>
       <c r="DZ2" t="n">
-        <v>120458.3028073681</v>
+        <v>120458.3031835942</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.30162783879795e-06</v>
+        <v>8.301627812869561e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>85865.96373484506</v>
+        <v>85865.96400311816</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.164605807125172e-05</v>
+        <v>1.164605803486566e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003865875018090788</v>
+        <v>0.003865875014554279</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.652911397609094e-05</v>
+        <v>1.652911398829618e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02330775429995036</v>
+        <v>0.02330775431855142</v>
       </c>
       <c r="EG2" t="n">
-        <v>85923.81069337031</v>
+        <v>85923.81096172887</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.153944444239236</v>
+        <v>1.153944446784584</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.153944444239236</v>
+        <v>1.153944446784584</v>
       </c>
       <c r="EJ2" t="n">
-        <v>311223.600710551</v>
+        <v>311223.6008805245</v>
       </c>
       <c r="EK2" t="n">
-        <v>385684.5603540784</v>
+        <v>385684.5605923649</v>
       </c>
       <c r="EL2" t="n">
-        <v>3788.609748060263</v>
+        <v>3788.609748082334</v>
       </c>
       <c r="EM2" t="n">
-        <v>716.537457384595</v>
+        <v>716.5374573909594</v>
       </c>
       <c r="EN2" t="n">
-        <v>1005.204882821675</v>
+        <v>1005.204882829564</v>
       </c>
       <c r="EO2" t="n">
-        <v>323.0917879612394</v>
+        <v>323.0917881094592</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.9993241596278499</v>
+        <v>0.9993241596289447</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.652911397609094e-05</v>
+        <v>1.652911398829618e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.02330775429995036</v>
+        <v>0.02330775431855142</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.5937144862496</v>
+        <v>295.5937144862175</v>
       </c>
       <c r="ET2" t="n">
-        <v>135289.0393273495</v>
+        <v>135289.0393135375</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.595200320646262</v>
+        <v>1.595200320483502</v>
       </c>
       <c r="EV2" t="n">
-        <v>336974.3683167493</v>
+        <v>336974.3683167544</v>
       </c>
       <c r="EW2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="EX2" t="n">
-        <v>3788.609748065464</v>
+        <v>3788.609748094755</v>
       </c>
       <c r="EY2" t="n">
-        <v>-698104.7970810954</v>
+        <v>-698104.7970896323</v>
       </c>
       <c r="EZ2" t="n">
-        <v>717.8561751867729</v>
+        <v>717.8561751867368</v>
       </c>
       <c r="FA2" t="n">
-        <v>1006.777073038603</v>
+        <v>1006.777073038376</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.402477415168377</v>
+        <v>1.402477415168131</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9995302899915051</v>
+        <v>0.9995302899915521</v>
       </c>
       <c r="FD2" t="n">
-        <v>344.8027749233459</v>
+        <v>344.802774923313</v>
       </c>
       <c r="FE2" t="n">
-        <v>189651.6968957866</v>
+        <v>189651.6968764001</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.272823899643245e-06</v>
+        <v>5.272823900182241e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>135226.2038907896</v>
+        <v>135226.2038769903</v>
       </c>
       <c r="FH2" t="n">
-        <v>7.3950164334097e-06</v>
+        <v>7.395016434164332e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003395619870063455</v>
+        <v>0.003395619870062544</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.832925574426638e-05</v>
+        <v>1.832925574426283e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02606729613576114</v>
+        <v>0.02606729613575431</v>
       </c>
       <c r="FL2" t="n">
-        <v>135289.0393273495</v>
+        <v>135289.0393135375</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.595200320646262</v>
+        <v>1.595200320483502</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.595200320646262</v>
+        <v>1.595200320483502</v>
       </c>
       <c r="FO2" t="n">
-        <v>336974.3683167493</v>
+        <v>336974.3683167544</v>
       </c>
       <c r="FP2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3788.609748065464</v>
+        <v>3788.609748094755</v>
       </c>
       <c r="FR2" t="n">
-        <v>717.8561751867729</v>
+        <v>717.8561751867368</v>
       </c>
       <c r="FS2" t="n">
-        <v>1006.777073038603</v>
+        <v>1006.777073038376</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027749233459</v>
+        <v>344.802774923313</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.9995302899915051</v>
+        <v>0.9995302899915521</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.832925574426638e-05</v>
+        <v>1.832925574426283e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02606729613576114</v>
+        <v>0.02606729613575431</v>
       </c>
       <c r="FX2" t="n">
-        <v>295.5937144862496</v>
+        <v>295.5937144862175</v>
       </c>
       <c r="FY2" t="n">
-        <v>135289.0393273495</v>
+        <v>135289.0393135375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.595200320646262</v>
+        <v>1.595200320483502</v>
       </c>
       <c r="GA2" t="n">
-        <v>336974.3683167493</v>
+        <v>336974.3683167544</v>
       </c>
       <c r="GB2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GC2" t="n">
-        <v>3788.609748065464</v>
+        <v>3788.609748094755</v>
       </c>
       <c r="GD2" t="n">
-        <v>-698104.7970810954</v>
+        <v>-698104.7970896323</v>
       </c>
       <c r="GE2" t="n">
-        <v>717.8561751867729</v>
+        <v>717.8561751867368</v>
       </c>
       <c r="GF2" t="n">
-        <v>1006.777073038603</v>
+        <v>1006.777073038376</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.402477415168377</v>
+        <v>1.402477415168131</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9995302899915051</v>
+        <v>0.9995302899915521</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8027749233459</v>
+        <v>344.802774923313</v>
       </c>
       <c r="GJ2" t="n">
-        <v>189651.6968957866</v>
+        <v>189651.6968764001</v>
       </c>
       <c r="GK2" t="n">
-        <v>5.272823899643245e-06</v>
+        <v>5.272823900182241e-06</v>
       </c>
       <c r="GL2" t="n">
-        <v>135226.2038907896</v>
+        <v>135226.2038769903</v>
       </c>
       <c r="GM2" t="n">
-        <v>7.3950164334097e-06</v>
+        <v>7.395016434164332e-06</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.003395619870063455</v>
+        <v>0.003395619870062544</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.832925574426638e-05</v>
+        <v>1.832925574426283e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.02606729613576114</v>
+        <v>0.02606729613575431</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135289.0393273495</v>
+        <v>135289.0393135375</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200320646262</v>
+        <v>1.595200320483502</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595200320646262</v>
+        <v>1.595200320483502</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3683167493</v>
+        <v>336974.3683167544</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.609748065464</v>
+        <v>3788.609748094755</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561751867729</v>
+        <v>717.8561751867368</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073038603</v>
+        <v>1006.777073038376</v>
       </c>
       <c r="GY2" t="n">
-        <v>344.8027749233459</v>
+        <v>344.802774923313</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899915051</v>
+        <v>0.9995302899915521</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.832925574426638e-05</v>
+        <v>1.832925574426283e-05</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.02606729613576114</v>
+        <v>0.02606729613575431</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.8316525080038105</v>
+        <v>0.8316525048796781</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.8316525080038105</v>
+        <v>0.8316525048796781</v>
       </c>
       <c r="HE2" t="n">
-        <v>490728.0546769316</v>
+        <v>490728.0537786983</v>
       </c>
       <c r="HF2" t="n">
-        <v>2.740246985329227</v>
+        <v>2.740246987567563</v>
       </c>
       <c r="HG2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.01593440618331848</v>
+        <v>0.01593440613484768</v>
       </c>
       <c r="HI2" t="n">
-        <v>-1.788006374773876e-07</v>
+        <v>-1.788006365304419e-07</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.01379068410878776</v>
+        <v>0.01379068410719914</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.02519148972712752</v>
+        <v>0.02519148974810759</v>
       </c>
       <c r="HL2" t="n">
         <v>0</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.05491640121859628</v>
+        <v>0.05491640118951788</v>
       </c>
       <c r="HN2" t="n">
-        <v>-6.392903775798153e-10</v>
+        <v>-1.652001452301377e-11</v>
       </c>
       <c r="HO2" t="n">
         <v>0</v>
@@ -3745,664 +3745,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ2" t="n">
-        <v>268.7000957734001</v>
+        <v>268.700094887286</v>
       </c>
       <c r="HR2" t="n">
-        <v>110.61253982201</v>
+        <v>110.6125396683755</v>
       </c>
       <c r="HS2" t="n">
-        <v>244.8767189888794</v>
+        <v>244.8767180859555</v>
       </c>
       <c r="HT2" t="n">
-        <v>65.69097058095267</v>
+        <v>65.69097053155019</v>
       </c>
       <c r="HU2" t="n">
-        <v>136.2610688720344</v>
+        <v>136.2610682200306</v>
       </c>
       <c r="HV2" t="n">
-        <v>110.61253982201</v>
+        <v>110.6125396683755</v>
       </c>
       <c r="HW2" t="n">
-        <v>79.57351898887944</v>
+        <v>79.57351808595553</v>
       </c>
       <c r="HX2" t="n">
-        <v>35.73085036575532</v>
+        <v>35.73085009527956</v>
       </c>
       <c r="HY2" t="n">
-        <v>259.5768823055146</v>
+        <v>259.5768825429881</v>
       </c>
       <c r="HZ2" t="n">
-        <v>85923.81069348383</v>
+        <v>85923.81096154847</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.153944444240344</v>
+        <v>1.153944446783468</v>
       </c>
       <c r="IB2" t="n">
-        <v>311223.6007106178</v>
+        <v>311223.6008803145</v>
       </c>
       <c r="IC2" t="n">
-        <v>385684.560354172</v>
+        <v>385684.5605920706</v>
       </c>
       <c r="ID2" t="n">
-        <v>3788.609748060246</v>
+        <v>3788.609748081802</v>
       </c>
       <c r="IE2" t="n">
-        <v>-597750.9463195874</v>
+        <v>-597750.9469869791</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.5374573845974</v>
+        <v>716.5374573909522</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.204882821678</v>
+        <v>1005.204882829558</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.402864389659033</v>
+        <v>1.402864389657587</v>
       </c>
       <c r="II2" t="n">
-        <v>0.9993241596278503</v>
+        <v>0.9993241596289422</v>
       </c>
       <c r="IJ2" t="n">
-        <v>323.0917879612978</v>
+        <v>323.0917881092765</v>
       </c>
       <c r="IK2" t="n">
-        <v>120458.3028075272</v>
+        <v>120458.3031833415</v>
       </c>
       <c r="IL2" t="n">
-        <v>8.301627838786981e-06</v>
+        <v>8.30162781288698e-06</v>
       </c>
       <c r="IM2" t="n">
-        <v>85865.96373495852</v>
+        <v>85865.96400293768</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.164605807123633e-05</v>
+        <v>1.164605803489014e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.003865875018089398</v>
+        <v>0.003865875014558663</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.652911397609575e-05</v>
+        <v>1.652911398828115e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02330775429995768</v>
+        <v>0.02330775431852853</v>
       </c>
       <c r="IR2" t="n">
-        <v>85923.81069348383</v>
+        <v>85923.81096154847</v>
       </c>
       <c r="IS2" t="n">
-        <v>1.153944444240344</v>
+        <v>1.153944446783468</v>
       </c>
       <c r="IT2" t="n">
-        <v>1.153944444240344</v>
+        <v>1.153944446783468</v>
       </c>
       <c r="IU2" t="n">
-        <v>311223.6007106178</v>
+        <v>311223.6008803145</v>
       </c>
       <c r="IV2" t="n">
-        <v>385684.560354172</v>
+        <v>385684.5605920706</v>
       </c>
       <c r="IW2" t="n">
-        <v>3788.609748060246</v>
+        <v>3788.609748081802</v>
       </c>
       <c r="IX2" t="n">
-        <v>716.5374573845974</v>
+        <v>716.5374573909522</v>
       </c>
       <c r="IY2" t="n">
-        <v>1005.204882821678</v>
+        <v>1005.204882829558</v>
       </c>
       <c r="IZ2" t="n">
-        <v>323.0917879612978</v>
+        <v>323.0917881092765</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.9993241596278503</v>
+        <v>0.9993241596289422</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.652911397609575e-05</v>
+        <v>1.652911398828115e-05</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.02330775429995768</v>
+        <v>0.02330775431852853</v>
       </c>
       <c r="JD2" t="n">
-        <v>295.5937144863499</v>
+        <v>295.5937144863261</v>
       </c>
       <c r="JE2" t="n">
-        <v>135289.0393275178</v>
+        <v>135289.0393173534</v>
       </c>
       <c r="JF2" t="n">
-        <v>1.595200320647704</v>
+        <v>1.595200320527929</v>
       </c>
       <c r="JG2" t="n">
-        <v>336974.3683168211</v>
+        <v>336974.3683168248</v>
       </c>
       <c r="JH2" t="n">
-        <v>421784.4310884897</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="JI2" t="n">
-        <v>3788.609748065447</v>
+        <v>3788.609748087002</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-698104.7970813698</v>
+        <v>-698104.7970876517</v>
       </c>
       <c r="JK2" t="n">
-        <v>717.8561751867775</v>
+        <v>717.8561751867511</v>
       </c>
       <c r="JL2" t="n">
-        <v>1006.777073038608</v>
+        <v>1006.777073038441</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.402477415168375</v>
+        <v>1.402477415168194</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.9995302899915057</v>
+        <v>0.9995302899915404</v>
       </c>
       <c r="JO2" t="n">
-        <v>344.8027749234044</v>
+        <v>344.8027749233801</v>
       </c>
       <c r="JP2" t="n">
-        <v>189651.6968960223</v>
+        <v>189651.6968817557</v>
       </c>
       <c r="JQ2" t="n">
-        <v>5.27282389963669e-06</v>
+        <v>5.27282390003334e-06</v>
       </c>
       <c r="JR2" t="n">
-        <v>135226.203890958</v>
+        <v>135226.2038808029</v>
       </c>
       <c r="JS2" t="n">
-        <v>7.395016433400495e-06</v>
+        <v>7.395016433955836e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.003395619870062305</v>
+        <v>0.003395619870061636</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.832925574427127e-05</v>
+        <v>1.832925574426865e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.02606729613576867</v>
+        <v>0.02606729613576364</v>
       </c>
       <c r="JW2" t="n">
-        <v>135289.0393275178</v>
+        <v>135289.0393173534</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.595200320647704</v>
+        <v>1.595200320527929</v>
       </c>
       <c r="JY2" t="n">
-        <v>1.595200320647704</v>
+        <v>1.595200320527929</v>
       </c>
       <c r="JZ2" t="n">
-        <v>336974.3683168211</v>
+        <v>336974.3683168248</v>
       </c>
       <c r="KA2" t="n">
-        <v>421784.4310884897</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KB2" t="n">
-        <v>3788.609748065447</v>
+        <v>3788.609748087002</v>
       </c>
       <c r="KC2" t="n">
-        <v>717.8561751867775</v>
+        <v>717.8561751867511</v>
       </c>
       <c r="KD2" t="n">
-        <v>1006.777073038608</v>
+        <v>1006.777073038441</v>
       </c>
       <c r="KE2" t="n">
-        <v>344.8027749234044</v>
+        <v>344.8027749233801</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.9995302899915057</v>
+        <v>0.9995302899915404</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.832925574427127e-05</v>
+        <v>1.832925574426865e-05</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.02606729613576867</v>
+        <v>0.02606729613576364</v>
       </c>
       <c r="KI2" t="n">
-        <v>268.8434083548302</v>
+        <v>268.8434085038717</v>
       </c>
       <c r="KJ2" t="n">
-        <v>97121.33573431672</v>
+        <v>97121.33591510521</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.259312805601404</v>
+        <v>1.259312807246429</v>
       </c>
       <c r="KL2" t="n">
-        <v>317845.6125963466</v>
+        <v>317845.6127028858</v>
       </c>
       <c r="KM2" t="n">
-        <v>394968.0997991468</v>
+        <v>394968.099948503</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.609748060246</v>
+        <v>3788.6097480818</v>
       </c>
       <c r="KO2" t="n">
-        <v>-623574.657795704</v>
+        <v>-623574.6582168028</v>
       </c>
       <c r="KP2" t="n">
-        <v>716.8078693023925</v>
+        <v>716.8078693070753</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1005.539795481</v>
+        <v>1005.539795486598</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402802394537891</v>
+        <v>1.402802394536537</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9993679200715559</v>
+        <v>0.9993679200723574</v>
       </c>
       <c r="KT2" t="n">
-        <v>328.8154048707751</v>
+        <v>328.8154049620261</v>
       </c>
       <c r="KU2" t="n">
-        <v>136156.3596420054</v>
+        <v>136156.3598954355</v>
       </c>
       <c r="KV2" t="n">
-        <v>7.344497184188021e-06</v>
+        <v>7.344497170517587e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>97060.25607894533</v>
+        <v>97060.25625969883</v>
       </c>
       <c r="KX2" t="n">
-        <v>1.030287823665575e-05</v>
+        <v>1.030287821746889e-05</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003732878041372073</v>
+        <v>0.003732878039305546</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.700134508104959e-05</v>
+        <v>1.700134508859138e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02402857192614535</v>
+        <v>0.02402857193767391</v>
       </c>
       <c r="LB2" t="n">
-        <v>97121.33573431672</v>
+        <v>97121.33591510521</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.259312805601404</v>
+        <v>1.259312807246429</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.259312805601404</v>
+        <v>1.259312807246429</v>
       </c>
       <c r="LE2" t="n">
-        <v>317845.6125963466</v>
+        <v>317845.6127028858</v>
       </c>
       <c r="LF2" t="n">
-        <v>394968.0997991468</v>
+        <v>394968.099948503</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.609748060246</v>
+        <v>3788.6097480818</v>
       </c>
       <c r="LH2" t="n">
-        <v>716.8078693023925</v>
+        <v>716.8078693070753</v>
       </c>
       <c r="LI2" t="n">
-        <v>1005.539795481</v>
+        <v>1005.539795486598</v>
       </c>
       <c r="LJ2" t="n">
-        <v>328.8154048707751</v>
+        <v>328.8154049620261</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9993679200715559</v>
+        <v>0.9993679200723574</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.700134508104959e-05</v>
+        <v>1.700134508859138e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02402857192614535</v>
+        <v>0.02402857193767391</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.8316525080036603</v>
+        <v>0.8316525048801483</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.4217410468147112</v>
+        <v>0.421741044603536</v>
       </c>
       <c r="LP2" t="n">
-        <v>247902.8553072421</v>
+        <v>247902.8544846222</v>
       </c>
       <c r="LQ2" t="n">
-        <v>2.740246985331857</v>
+        <v>2.740246987564913</v>
       </c>
       <c r="LR2" t="n">
-        <v>381305.5258340267</v>
+        <v>381305.5259832827</v>
       </c>
       <c r="LS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT2" t="n">
-        <v>135.2439387420475</v>
+        <v>135.2439391354384</v>
       </c>
       <c r="LU2" t="n">
-        <v>123.2099307870646</v>
+        <v>123.2099309327717</v>
       </c>
       <c r="LV2" t="n">
-        <v>-55.76948916665299</v>
+        <v>-55.7694897987401</v>
       </c>
       <c r="LW2" t="n">
-        <v>-24.35331162760778</v>
+        <v>-24.35331184610825</v>
       </c>
       <c r="LX2" t="n">
-        <v>253.0885634317142</v>
+        <v>253.0885640547758</v>
       </c>
       <c r="LY2" t="n">
-        <v>123.2099307870646</v>
+        <v>123.2099309327717</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-221.072689166653</v>
+        <v>-221.0726897987401</v>
       </c>
       <c r="MA2" t="n">
-        <v>-60.86786565676449</v>
+        <v>-60.86786569761385</v>
       </c>
       <c r="MB2" t="n">
-        <v>236.8579341774455</v>
+        <v>236.8579341688225</v>
       </c>
       <c r="MC2" t="n">
-        <v>60000.00001023254</v>
+        <v>59999.99999860042</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.8831275049419877</v>
+        <v>0.8831275048029057</v>
       </c>
       <c r="ME2" t="n">
-        <v>295000.8300102958</v>
+        <v>295000.8300041475</v>
       </c>
       <c r="MF2" t="n">
-        <v>362941.1893292753</v>
+        <v>362941.1893206553</v>
       </c>
       <c r="MG2" t="n">
-        <v>3799.93041533037</v>
+        <v>3799.930415349585</v>
       </c>
       <c r="MH2" t="n">
-        <v>-537102.4788639186</v>
+        <v>-537102.4788443231</v>
       </c>
       <c r="MI2" t="n">
-        <v>716.032559814235</v>
+        <v>716.0325598140698</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1004.487930663209</v>
+        <v>1004.487930662894</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.402852310129318</v>
+        <v>1.402852310129201</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.9992718935287203</v>
+        <v>0.9992718935287457</v>
       </c>
       <c r="MM2" t="n">
-        <v>308.6114441826037</v>
+        <v>308.611444176981</v>
       </c>
       <c r="MN2" t="n">
-        <v>84109.9674344308</v>
+        <v>84109.96741811963</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.18891973270536e-05</v>
+        <v>1.188919732935923e-05</v>
       </c>
       <c r="MP2" t="n">
-        <v>59956.39514374635</v>
+        <v>59956.39513212417</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.667878793584046e-05</v>
+        <v>1.667878793907354e-05</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.004235349901546948</v>
+        <v>0.004235349901699932</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.534216843218065e-05</v>
+        <v>1.534216843172159e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02150523150276522</v>
+        <v>0.02150523150207025</v>
       </c>
       <c r="MU2" t="n">
-        <v>60000.00001023254</v>
+        <v>59999.99999860042</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.8831275049419877</v>
+        <v>0.8831275048029057</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8831275049419877</v>
+        <v>0.8831275048029057</v>
       </c>
       <c r="MX2" t="n">
-        <v>295000.8300102958</v>
+        <v>295000.8300041475</v>
       </c>
       <c r="MY2" t="n">
-        <v>362941.1893292753</v>
+        <v>362941.1893206553</v>
       </c>
       <c r="MZ2" t="n">
-        <v>3799.93041533037</v>
+        <v>3799.930415349585</v>
       </c>
       <c r="NA2" t="n">
-        <v>716.032559814235</v>
+        <v>716.0325598140698</v>
       </c>
       <c r="NB2" t="n">
-        <v>1004.487930663209</v>
+        <v>1004.487930662894</v>
       </c>
       <c r="NC2" t="n">
-        <v>308.6114441826037</v>
+        <v>308.611444176981</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.9992718935287203</v>
+        <v>0.9992718935287457</v>
       </c>
       <c r="NE2" t="n">
-        <v>1.534216843218065e-05</v>
+        <v>1.534216843172159e-05</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.02150523150276522</v>
+        <v>0.02150523150207025</v>
       </c>
       <c r="NG2" t="n">
-        <v>245.9907770943877</v>
+        <v>245.9907771390847</v>
       </c>
       <c r="NH2" t="n">
-        <v>68471.84081510574</v>
+        <v>68471.84085621398</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.9703790576740479</v>
+        <v>0.9703790580801458</v>
       </c>
       <c r="NJ2" t="n">
-        <v>301524.6984766669</v>
+        <v>301524.6985086036</v>
       </c>
       <c r="NK2" t="n">
-        <v>372086.6508123134</v>
+        <v>372086.6508570834</v>
       </c>
       <c r="NL2" t="n">
-        <v>3799.930415338941</v>
+        <v>3799.930415348726</v>
       </c>
       <c r="NM2" t="n">
-        <v>-562661.1849615121</v>
+        <v>-562661.1850889944</v>
       </c>
       <c r="NN2" t="n">
-        <v>716.2042311250725</v>
+        <v>716.2042311259861</v>
       </c>
       <c r="NO2" t="n">
-        <v>1004.719244219011</v>
+        <v>1004.719244220168</v>
       </c>
       <c r="NP2" t="n">
-        <v>1.402839023501321</v>
+        <v>1.402839023501147</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.9992991868079915</v>
+        <v>0.9992991868081622</v>
       </c>
       <c r="NR2" t="n">
-        <v>314.5121000972617</v>
+        <v>314.51210012587</v>
       </c>
       <c r="NS2" t="n">
-        <v>95987.82084871552</v>
+        <v>95987.8209063481</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.041798835683623e-05</v>
+        <v>1.041798835058111e-05</v>
       </c>
       <c r="NU2" t="n">
-        <v>68423.97398465664</v>
+        <v>68423.97402574796</v>
       </c>
       <c r="NV2" t="n">
-        <v>1.461476061335227e-05</v>
+        <v>1.461476060457552e-05</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.004078414450254455</v>
+        <v>0.004078414449514419</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.582417315753036e-05</v>
+        <v>1.582417315987199e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.02223537839966674</v>
+        <v>0.02223537840321902</v>
       </c>
       <c r="NZ2" t="n">
-        <v>68471.84081510574</v>
+        <v>68471.84085621398</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.9703790576740479</v>
+        <v>0.9703790580801458</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.9703790576740479</v>
+        <v>0.9703790580801458</v>
       </c>
       <c r="OC2" t="n">
-        <v>301524.6984766669</v>
+        <v>301524.6985086036</v>
       </c>
       <c r="OD2" t="n">
-        <v>372086.6508123134</v>
+        <v>372086.6508570834</v>
       </c>
       <c r="OE2" t="n">
-        <v>3799.930415338941</v>
+        <v>3799.930415348726</v>
       </c>
       <c r="OF2" t="n">
-        <v>716.2042311250725</v>
+        <v>716.2042311259861</v>
       </c>
       <c r="OG2" t="n">
-        <v>1004.719244219011</v>
+        <v>1004.719244220168</v>
       </c>
       <c r="OH2" t="n">
-        <v>314.5121000972617</v>
+        <v>314.51210012587</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.9992991868079915</v>
+        <v>0.9992991868081622</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1.582417315753036e-05</v>
+        <v>1.582417315987199e-05</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.02223537839966674</v>
+        <v>0.02223537840321902</v>
       </c>
       <c r="OL2" t="n">
-        <v>268.8328431523723</v>
+        <v>268.8328433014166</v>
       </c>
       <c r="OM2" t="n">
-        <v>93363.31871994164</v>
+        <v>93363.31889756832</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.210603158562087</v>
+        <v>1.210603160193221</v>
       </c>
       <c r="OO2" t="n">
-        <v>317846.7755569756</v>
+        <v>317846.7756635175</v>
       </c>
       <c r="OP2" t="n">
-        <v>394968.0997990464</v>
+        <v>394968.0999484027</v>
       </c>
       <c r="OQ2" t="n">
-        <v>3799.930415330369</v>
+        <v>3799.930415340154</v>
       </c>
       <c r="OR2" t="n">
-        <v>-626577.9975353918</v>
+        <v>-626577.997955024</v>
       </c>
       <c r="OS2" t="n">
-        <v>716.795508693976</v>
+        <v>716.795508698666</v>
       </c>
       <c r="OT2" t="n">
-        <v>1005.462374060976</v>
+        <v>1005.462374066613</v>
       </c>
       <c r="OU2" t="n">
-        <v>1.402718574357365</v>
+        <v>1.402718574356051</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9993921250379207</v>
+        <v>0.999392125038666</v>
       </c>
       <c r="OW2" t="n">
-        <v>328.8070441978001</v>
+        <v>328.8070442890401</v>
       </c>
       <c r="OX2" t="n">
-        <v>130883.2374284521</v>
+        <v>130883.2376774378</v>
       </c>
       <c r="OY2" t="n">
-        <v>7.640397805308369e-06</v>
+        <v>7.640397790773663e-06</v>
       </c>
       <c r="OZ2" t="n">
-        <v>93306.8398901144</v>
+        <v>93306.84006770402</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.071732791698529e-05</v>
+        <v>1.071732789658715e-05</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.003732514180718349</v>
+        <v>0.003732514178652317</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.700024115104632e-05</v>
+        <v>1.700024115858806e-05</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.02402642731341687</v>
+        <v>0.02402642732494545</v>
       </c>
       <c r="PE2" t="n">
-        <v>93363.31871994164</v>
+        <v>93363.31889756832</v>
       </c>
       <c r="PF2" t="n">
-        <v>1.210603158562087</v>
+        <v>1.210603160193221</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.210603158562087</v>
+        <v>1.210603160193221</v>
       </c>
       <c r="PH2" t="n">
-        <v>317846.7755569756</v>
+        <v>317846.7756635175</v>
       </c>
       <c r="PI2" t="n">
-        <v>394968.0997990464</v>
+        <v>394968.0999484027</v>
       </c>
       <c r="PJ2" t="n">
-        <v>3799.930415330369</v>
+        <v>3799.930415340154</v>
       </c>
       <c r="PK2" t="n">
-        <v>716.795508693976</v>
+        <v>716.795508698666</v>
       </c>
       <c r="PL2" t="n">
-        <v>1005.462374060976</v>
+        <v>1005.462374066613</v>
       </c>
       <c r="PM2" t="n">
-        <v>328.8070441978001</v>
+        <v>328.8070442890401</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.9993921250379207</v>
+        <v>0.999392125038666</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.700024115104632e-05</v>
+        <v>1.700024115858806e-05</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.02402642731341687</v>
+        <v>0.02402642732494545</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.438233711974804</v>
+        <v>0.438233713257501</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.820088069326305</v>
+        <v>0.8200880713601656</v>
       </c>
       <c r="PS2" t="n">
-        <v>379650.1683848434</v>
+        <v>379650.1692710478</v>
       </c>
       <c r="PT2" t="n">
-        <v>2.740246984524617</v>
+        <v>2.740246987333656</v>
       </c>
       <c r="PU2" t="n">
-        <v>381305.5258340267</v>
+        <v>381305.5259832827</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02447288218978874</v>
+        <v>0.02447288202655256</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.001918869916696828</v>
+        <v>0.001918869764584496</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.01189012427595623</v>
+        <v>0.01189012429133729</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.03198084326462634</v>
+        <v>0.031980843139544</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.04237646483535108</v>
+        <v>0.04237646467669577</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.1126391844824192</v>
+        <v>0.1126391838987141</v>
       </c>
       <c r="QB2" t="n">
-        <v>9.850338600347897e-11</v>
+        <v>1.380141279039293e-10</v>
       </c>
       <c r="QC2" t="n">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.7059193225946</v>
+        <v>80.70591932814955</v>
       </c>
       <c r="D3" t="n">
-        <v>80.7059193225946</v>
+        <v>80.70591932814955</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.7059193225946</v>
+        <v>80.70591932814955</v>
       </c>
       <c r="H3" t="n">
-        <v>80.7059193225946</v>
+        <v>80.70591932814955</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4440,97 +4440,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3528032956575</v>
+        <v>292.3528032950104</v>
       </c>
       <c r="L3" t="n">
-        <v>132773.0183105136</v>
+        <v>132773.0183094861</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582939879029586</v>
+        <v>1.582939879020846</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.2218963317</v>
+        <v>334650.2218958686</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.7083817372</v>
+        <v>418527.7083810882</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.7828594634</v>
+        <v>-687418.7828576647</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129246622333</v>
+        <v>717.7129246622042</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.64768059035</v>
+        <v>1006.647680590316</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577055532466</v>
+        <v>1.402577055532475</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979670300632</v>
+        <v>0.9994979670300587</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9084201846693</v>
+        <v>342.9084201842895</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.8608793754</v>
+        <v>186131.8608779353</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372535337451228e-06</v>
+        <v>5.372535337492793e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132707.048176197</v>
+        <v>132707.0481751693</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535394794346464e-06</v>
+        <v>7.535394794404815e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433455930469429</v>
+        <v>0.003433455930477016</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817142688355197e-05</v>
+        <v>1.817142688352032e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582433232353167</v>
+        <v>0.02582433232348291</v>
       </c>
       <c r="AD3" t="n">
-        <v>132773.0183105136</v>
+        <v>132773.0183094861</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582939879029586</v>
+        <v>1.582939879020846</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582939879029586</v>
+        <v>1.582939879020846</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.2218963317</v>
+        <v>334650.2218958686</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.7083817372</v>
+        <v>418527.7083810882</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129246622333</v>
+        <v>717.7129246622042</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.64768059035</v>
+        <v>1006.647680590316</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9084201846693</v>
+        <v>342.9084201842895</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979670300632</v>
+        <v>0.9994979670300587</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817142688355197e-05</v>
+        <v>1.817142688352032e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582433232353167</v>
+        <v>0.02582433232348291</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4719,16 +4719,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2353570649537605</v>
+        <v>0.2353570649702207</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2353570649537605</v>
+        <v>0.2353570649702207</v>
       </c>
       <c r="DB3" t="n">
-        <v>183915.578712128</v>
+        <v>183915.5787240917</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.742649139903785</v>
+        <v>2.742649140077418</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4737,343 +4737,343 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>270.1969687680193</v>
+        <v>270.1969682126864</v>
       </c>
       <c r="DG3" t="n">
-        <v>111.1593490933704</v>
+        <v>111.1593489303069</v>
       </c>
       <c r="DH3" t="n">
-        <v>246.2722092331252</v>
+        <v>246.2722086974447</v>
       </c>
       <c r="DI3" t="n">
-        <v>65.70711545068366</v>
+        <v>65.70711543546795</v>
       </c>
       <c r="DJ3" t="n">
-        <v>270.1969687680193</v>
+        <v>270.1969682126864</v>
       </c>
       <c r="DK3" t="n">
-        <v>111.1593490933704</v>
+        <v>111.1593489303069</v>
       </c>
       <c r="DL3" t="n">
-        <v>246.2722092331252</v>
+        <v>246.2722086974447</v>
       </c>
       <c r="DM3" t="n">
-        <v>65.70711545068366</v>
+        <v>65.70711543546795</v>
       </c>
       <c r="DN3" t="n">
-        <v>259.1741887392753</v>
+        <v>259.1741888890895</v>
       </c>
       <c r="DO3" t="n">
-        <v>85443.19294850253</v>
+        <v>85443.19312728467</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.149274615371347</v>
+        <v>1.149274617111075</v>
       </c>
       <c r="DQ3" t="n">
-        <v>310935.9067284979</v>
+        <v>310935.9068355275</v>
       </c>
       <c r="DR3" t="n">
-        <v>385281.2301226762</v>
+        <v>385281.2302727255</v>
       </c>
       <c r="DS3" t="n">
-        <v>3788.663779703297</v>
+        <v>3788.663779682031</v>
       </c>
       <c r="DT3" t="n">
-        <v>-596642.6313878023</v>
+        <v>-596642.6317998371</v>
       </c>
       <c r="DU3" t="n">
-        <v>716.5266251487265</v>
+        <v>716.526625152743</v>
       </c>
       <c r="DV3" t="n">
-        <v>1005.190956701076</v>
+        <v>1005.190956706249</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.402866162150544</v>
+        <v>1.402866162149901</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.9993225259972826</v>
+        <v>0.9993225259978853</v>
       </c>
       <c r="DY3" t="n">
-        <v>322.8407493604658</v>
+        <v>322.8407494538961</v>
       </c>
       <c r="DZ3" t="n">
-        <v>119784.4678180582</v>
+        <v>119784.4680687147</v>
       </c>
       <c r="EA3" t="n">
-        <v>8.348327777512103e-06</v>
+        <v>8.348327760042706e-06</v>
       </c>
       <c r="EB3" t="n">
-        <v>85385.52789271987</v>
+        <v>85385.52807143361</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.171158654961319e-05</v>
+        <v>1.171158652510059e-05</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003871867273910785</v>
+        <v>0.003871867271678081</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.650844021186278e-05</v>
+        <v>1.650844021955645e-05</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.02327624548938127</v>
+        <v>0.02327624550110643</v>
       </c>
       <c r="EG3" t="n">
-        <v>85443.19294850253</v>
+        <v>85443.19312728467</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.149274615371347</v>
+        <v>1.149274617111075</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.149274615371347</v>
+        <v>1.149274617111075</v>
       </c>
       <c r="EJ3" t="n">
-        <v>310935.9067284979</v>
+        <v>310935.9068355275</v>
       </c>
       <c r="EK3" t="n">
-        <v>385281.2301226762</v>
+        <v>385281.2302727255</v>
       </c>
       <c r="EL3" t="n">
-        <v>3788.663779703297</v>
+        <v>3788.663779682031</v>
       </c>
       <c r="EM3" t="n">
-        <v>716.5266251487265</v>
+        <v>716.526625152743</v>
       </c>
       <c r="EN3" t="n">
-        <v>1005.190956701076</v>
+        <v>1005.190956706249</v>
       </c>
       <c r="EO3" t="n">
-        <v>322.8407493604658</v>
+        <v>322.8407494538961</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.9993225259972826</v>
+        <v>0.9993225259978853</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.650844021186278e-05</v>
+        <v>1.650844021955645e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.02327624548938127</v>
+        <v>0.02327624550110643</v>
       </c>
       <c r="ES3" t="n">
-        <v>295.5936554165385</v>
+        <v>295.5936554165617</v>
       </c>
       <c r="ET3" t="n">
-        <v>135263.5641227555</v>
+        <v>135263.5641327809</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.594900121493247</v>
+        <v>1.594900121611386</v>
       </c>
       <c r="EV3" t="n">
-        <v>336974.3779072573</v>
+        <v>336974.3779072537</v>
       </c>
       <c r="EW3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="EX3" t="n">
-        <v>3788.663779708497</v>
+        <v>3788.663779687233</v>
       </c>
       <c r="EY3" t="n">
-        <v>-698120.5446996843</v>
+        <v>-698120.5446934862</v>
       </c>
       <c r="EZ3" t="n">
-        <v>717.8561088314194</v>
+        <v>717.8561088314455</v>
       </c>
       <c r="FA3" t="n">
-        <v>1006.776654763014</v>
+        <v>1006.776654763179</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.402476962133709</v>
+        <v>1.402476962133887</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9995303767050661</v>
+        <v>0.9995303767050319</v>
       </c>
       <c r="FD3" t="n">
-        <v>344.8027143551308</v>
+        <v>344.8027143551546</v>
       </c>
       <c r="FE3" t="n">
-        <v>189615.9399165495</v>
+        <v>189615.939930621</v>
       </c>
       <c r="FF3" t="n">
-        <v>5.273818226674946e-06</v>
+        <v>5.273818226283571e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>135200.7519810311</v>
+        <v>135200.7519910472</v>
       </c>
       <c r="FH3" t="n">
-        <v>7.396408565392462e-06</v>
+        <v>7.396408564844508e-06</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003395618189366614</v>
+        <v>0.003395618189367277</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.832924920426711e-05</v>
+        <v>1.832924920426968e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02606728356295546</v>
+        <v>0.02606728356296041</v>
       </c>
       <c r="FL3" t="n">
-        <v>135263.5641227555</v>
+        <v>135263.5641327809</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.594900121493247</v>
+        <v>1.594900121611386</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.594900121493247</v>
+        <v>1.594900121611386</v>
       </c>
       <c r="FO3" t="n">
-        <v>336974.3779072573</v>
+        <v>336974.3779072537</v>
       </c>
       <c r="FP3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3788.663779708497</v>
+        <v>3788.663779687233</v>
       </c>
       <c r="FR3" t="n">
-        <v>717.8561088314194</v>
+        <v>717.8561088314455</v>
       </c>
       <c r="FS3" t="n">
-        <v>1006.776654763014</v>
+        <v>1006.776654763179</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027143551308</v>
+        <v>344.8027143551546</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.9995303767050661</v>
+        <v>0.9995303767050319</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.832924920426711e-05</v>
+        <v>1.832924920426968e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02606728356295546</v>
+        <v>0.02606728356296041</v>
       </c>
       <c r="FX3" t="n">
-        <v>295.5936554165385</v>
+        <v>295.5936554165617</v>
       </c>
       <c r="FY3" t="n">
-        <v>135263.5641227555</v>
+        <v>135263.5641327809</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.594900121493247</v>
+        <v>1.594900121611386</v>
       </c>
       <c r="GA3" t="n">
-        <v>336974.3779072573</v>
+        <v>336974.3779072537</v>
       </c>
       <c r="GB3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GC3" t="n">
-        <v>3788.663779708497</v>
+        <v>3788.663779687233</v>
       </c>
       <c r="GD3" t="n">
-        <v>-698120.5446996843</v>
+        <v>-698120.5446934862</v>
       </c>
       <c r="GE3" t="n">
-        <v>717.8561088314194</v>
+        <v>717.8561088314455</v>
       </c>
       <c r="GF3" t="n">
-        <v>1006.776654763014</v>
+        <v>1006.776654763179</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.402476962133709</v>
+        <v>1.402476962133887</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9995303767050661</v>
+        <v>0.9995303767050319</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8027143551308</v>
+        <v>344.8027143551546</v>
       </c>
       <c r="GJ3" t="n">
-        <v>189615.9399165495</v>
+        <v>189615.939930621</v>
       </c>
       <c r="GK3" t="n">
-        <v>5.273818226674946e-06</v>
+        <v>5.273818226283571e-06</v>
       </c>
       <c r="GL3" t="n">
-        <v>135200.7519810311</v>
+        <v>135200.7519910472</v>
       </c>
       <c r="GM3" t="n">
-        <v>7.396408565392462e-06</v>
+        <v>7.396408564844508e-06</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.003395618189366614</v>
+        <v>0.003395618189367277</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.832924920426711e-05</v>
+        <v>1.832924920426968e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.02606728356295546</v>
+        <v>0.02606728356296041</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.5641227555</v>
+        <v>135263.5641327809</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594900121493247</v>
+        <v>1.594900121611386</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594900121493247</v>
+        <v>1.594900121611386</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3779072573</v>
+        <v>336974.3779072537</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.663779708497</v>
+        <v>3788.663779687233</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561088314194</v>
+        <v>717.8561088314455</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776654763014</v>
+        <v>1006.776654763179</v>
       </c>
       <c r="GY3" t="n">
-        <v>344.8027143551308</v>
+        <v>344.8027143551546</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303767050661</v>
+        <v>0.9995303767050319</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.832924920426711e-05</v>
+        <v>1.832924920426968e-05</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.02606728356295546</v>
+        <v>0.02606728356296041</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.8369357626113442</v>
+        <v>0.8369357606489894</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.8369357626113442</v>
+        <v>0.8369357606489894</v>
       </c>
       <c r="HE3" t="n">
-        <v>492080.3073920344</v>
+        <v>492080.3068962279</v>
       </c>
       <c r="HF3" t="n">
-        <v>2.7426491400054</v>
+        <v>2.74264914013383</v>
       </c>
       <c r="HG3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.01595100148426873</v>
+        <v>0.0159510014692575</v>
       </c>
       <c r="HI3" t="n">
-        <v>-1.793991211555842e-07</v>
+        <v>-1.793991198663737e-07</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.0137912303809289</v>
+        <v>0.01379123038043169</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.02518399104484519</v>
+        <v>0.02518399105148189</v>
       </c>
       <c r="HL3" t="n">
         <v>0</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.05492604351092167</v>
+        <v>0.05492604350205121</v>
       </c>
       <c r="HN3" t="n">
-        <v>1.992607467915519e-12</v>
+        <v>-4.315985069336392e-12</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
@@ -5082,664 +5082,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ3" t="n">
-        <v>270.1969687680193</v>
+        <v>270.1969682126864</v>
       </c>
       <c r="HR3" t="n">
-        <v>111.1593490933704</v>
+        <v>111.1593489303069</v>
       </c>
       <c r="HS3" t="n">
-        <v>246.2722092331252</v>
+        <v>246.2722086974447</v>
       </c>
       <c r="HT3" t="n">
-        <v>65.70711545068366</v>
+        <v>65.70711543546795</v>
       </c>
       <c r="HU3" t="n">
-        <v>137.522294000121</v>
+        <v>137.522293552924</v>
       </c>
       <c r="HV3" t="n">
-        <v>111.1593490933704</v>
+        <v>111.1593489303069</v>
       </c>
       <c r="HW3" t="n">
-        <v>80.96900923312521</v>
+        <v>80.96900869744471</v>
       </c>
       <c r="HX3" t="n">
-        <v>36.06977639495994</v>
+        <v>36.06977625456265</v>
       </c>
       <c r="HY3" t="n">
-        <v>259.1741887393748</v>
+        <v>259.1741888891891</v>
       </c>
       <c r="HZ3" t="n">
-        <v>85443.19294845352</v>
+        <v>85443.19312938662</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.149274615370244</v>
+        <v>1.149274617138924</v>
       </c>
       <c r="IB3" t="n">
-        <v>310935.9067285696</v>
+        <v>310935.9068355937</v>
       </c>
       <c r="IC3" t="n">
-        <v>385281.2301227764</v>
+        <v>385281.2302728192</v>
       </c>
       <c r="ID3" t="n">
-        <v>3788.663779703848</v>
+        <v>3788.663779675335</v>
       </c>
       <c r="IE3" t="n">
-        <v>-596642.631388222</v>
+        <v>-596642.6317983854</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.5266251487285</v>
+        <v>716.5266251527527</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.190956701075</v>
+        <v>1005.190956706297</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.40286616215054</v>
+        <v>1.402866162149949</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993225259972842</v>
+        <v>0.99932252599787</v>
       </c>
       <c r="IJ3" t="n">
-        <v>322.8407493605278</v>
+        <v>322.8407494539588</v>
       </c>
       <c r="IK3" t="n">
-        <v>119784.4678179893</v>
+        <v>119784.4680716638</v>
       </c>
       <c r="IL3" t="n">
-        <v>8.348327777516909e-06</v>
+        <v>8.348327759837172e-06</v>
       </c>
       <c r="IM3" t="n">
-        <v>85385.52789267103</v>
+        <v>85385.52807353287</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.171158654961989e-05</v>
+        <v>1.171158652481265e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.003871867273909275</v>
+        <v>0.003871867271676908</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.650844021186787e-05</v>
+        <v>1.650844021956187e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.023276245489389</v>
+        <v>0.02327624550111495</v>
       </c>
       <c r="IR3" t="n">
-        <v>85443.19294845352</v>
+        <v>85443.19312938662</v>
       </c>
       <c r="IS3" t="n">
-        <v>1.149274615370244</v>
+        <v>1.149274617138924</v>
       </c>
       <c r="IT3" t="n">
-        <v>1.149274615370244</v>
+        <v>1.149274617138924</v>
       </c>
       <c r="IU3" t="n">
-        <v>310935.9067285696</v>
+        <v>310935.9068355937</v>
       </c>
       <c r="IV3" t="n">
-        <v>385281.2301227764</v>
+        <v>385281.2302728192</v>
       </c>
       <c r="IW3" t="n">
-        <v>3788.663779703848</v>
+        <v>3788.663779675335</v>
       </c>
       <c r="IX3" t="n">
-        <v>716.5266251487285</v>
+        <v>716.5266251527527</v>
       </c>
       <c r="IY3" t="n">
-        <v>1005.190956701075</v>
+        <v>1005.190956706297</v>
       </c>
       <c r="IZ3" t="n">
-        <v>322.8407493605278</v>
+        <v>322.8407494539588</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.9993225259972842</v>
+        <v>0.99932252599787</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.650844021186787e-05</v>
+        <v>1.650844021956187e-05</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.023276245489389</v>
+        <v>0.02327624550111495</v>
       </c>
       <c r="JD3" t="n">
-        <v>295.5936554166378</v>
+        <v>295.5936554164609</v>
       </c>
       <c r="JE3" t="n">
-        <v>135263.5641226558</v>
+        <v>135263.5641323603</v>
       </c>
       <c r="JF3" t="n">
-        <v>1.594900121491532</v>
+        <v>1.59490012160697</v>
       </c>
       <c r="JG3" t="n">
-        <v>336974.3779073292</v>
+        <v>336974.3779071821</v>
       </c>
       <c r="JH3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="JI3" t="n">
-        <v>3788.66377970905</v>
+        <v>3788.663779687786</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-698120.5447001234</v>
+        <v>-698120.5446933686</v>
       </c>
       <c r="JK3" t="n">
-        <v>717.8561088314235</v>
+        <v>717.85610883144</v>
       </c>
       <c r="JL3" t="n">
-        <v>1006.776654763015</v>
+        <v>1006.776654763169</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.402476962133703</v>
+        <v>1.402476962133885</v>
       </c>
       <c r="JN3" t="n">
-        <v>0.9995303767050676</v>
+        <v>0.9995303767050321</v>
       </c>
       <c r="JO3" t="n">
-        <v>344.8027143551885</v>
+        <v>344.8027143550956</v>
       </c>
       <c r="JP3" t="n">
-        <v>189615.939916409</v>
+        <v>189615.9399300311</v>
       </c>
       <c r="JQ3" t="n">
-        <v>5.273818226678853e-06</v>
+        <v>5.273818226299979e-06</v>
       </c>
       <c r="JR3" t="n">
-        <v>135200.7519809316</v>
+        <v>135200.7519906269</v>
       </c>
       <c r="JS3" t="n">
-        <v>7.396408565397906e-06</v>
+        <v>7.396408564867505e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.00339561818936545</v>
+        <v>0.003395618189368408</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.832924920427191e-05</v>
+        <v>1.832924920426474e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.02606728356296284</v>
+        <v>0.02606728356295275</v>
       </c>
       <c r="JW3" t="n">
-        <v>135263.5641226558</v>
+        <v>135263.5641323603</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.594900121491532</v>
+        <v>1.59490012160697</v>
       </c>
       <c r="JY3" t="n">
-        <v>1.594900121491532</v>
+        <v>1.59490012160697</v>
       </c>
       <c r="JZ3" t="n">
-        <v>336974.3779073292</v>
+        <v>336974.3779071821</v>
       </c>
       <c r="KA3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KB3" t="n">
-        <v>3788.66377970905</v>
+        <v>3788.663779687786</v>
       </c>
       <c r="KC3" t="n">
-        <v>717.8561088314235</v>
+        <v>717.85610883144</v>
       </c>
       <c r="KD3" t="n">
-        <v>1006.776654763015</v>
+        <v>1006.776654763169</v>
       </c>
       <c r="KE3" t="n">
-        <v>344.8027143551885</v>
+        <v>344.8027143550956</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.9995303767050676</v>
+        <v>0.9995303767050321</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.832924920427191e-05</v>
+        <v>1.832924920426474e-05</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.02606728356296284</v>
+        <v>0.02606728356295275</v>
       </c>
       <c r="KI3" t="n">
-        <v>268.6131314318133</v>
+        <v>268.6131315202097</v>
       </c>
       <c r="KJ3" t="n">
-        <v>96812.91198576867</v>
+        <v>96812.91210419779</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.256391134714401</v>
+        <v>1.256391135837356</v>
       </c>
       <c r="KL3" t="n">
-        <v>317681.0732063285</v>
+        <v>317681.0732694895</v>
       </c>
       <c r="KM3" t="n">
-        <v>394737.4207965047</v>
+        <v>394737.4208850545</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.66377971048</v>
+        <v>3788.663779689216</v>
       </c>
       <c r="KO3" t="n">
-        <v>-622947.4210138167</v>
+        <v>-622947.4212544595</v>
       </c>
       <c r="KP3" t="n">
-        <v>716.8005541572695</v>
+        <v>716.8005541600728</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1005.53055485247</v>
+        <v>1005.530554856016</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402803819026976</v>
+        <v>1.402803819026436</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9993668746949542</v>
+        <v>0.9993668746953536</v>
       </c>
       <c r="KT3" t="n">
-        <v>328.6743722246701</v>
+        <v>328.6743722788199</v>
       </c>
       <c r="KU3" t="n">
-        <v>135723.9678027127</v>
+        <v>135723.9679687436</v>
       </c>
       <c r="KV3" t="n">
-        <v>7.367895414416357e-06</v>
+        <v>7.367895405403219e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>96751.92351333531</v>
+        <v>96751.92363172911</v>
       </c>
       <c r="KX3" t="n">
-        <v>1.033571182553461e-05</v>
+        <v>1.033571181288696e-05</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003736069647668254</v>
+        <v>0.003736069646442067</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.698968615277731e-05</v>
+        <v>1.69896861572536e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02401074690681791</v>
+        <v>0.02401074691366136</v>
       </c>
       <c r="LB3" t="n">
-        <v>96812.91198576867</v>
+        <v>96812.91210419779</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.256391134714401</v>
+        <v>1.256391135837356</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.256391134714401</v>
+        <v>1.256391135837356</v>
       </c>
       <c r="LE3" t="n">
-        <v>317681.0732063285</v>
+        <v>317681.0732694895</v>
       </c>
       <c r="LF3" t="n">
-        <v>394737.4207965047</v>
+        <v>394737.4208850545</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.66377971048</v>
+        <v>3788.663779689216</v>
       </c>
       <c r="LH3" t="n">
-        <v>716.8005541572695</v>
+        <v>716.8005541600728</v>
       </c>
       <c r="LI3" t="n">
-        <v>1005.53055485247</v>
+        <v>1005.530554856016</v>
       </c>
       <c r="LJ3" t="n">
-        <v>328.6743722246701</v>
+        <v>328.6743722788199</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9993668746949542</v>
+        <v>0.9993668746953536</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.698968615277731e-05</v>
+        <v>1.69896861572536e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02401074690681791</v>
+        <v>0.02401074691366136</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.8369357626111835</v>
+        <v>0.8369357606488272</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.4259756374389557</v>
+        <v>0.4259756359304835</v>
       </c>
       <c r="LP3" t="n">
-        <v>249496.9797339729</v>
+        <v>249496.9791903373</v>
       </c>
       <c r="LQ3" t="n">
-        <v>2.742649140002768</v>
+        <v>2.742649140200289</v>
       </c>
       <c r="LR3" t="n">
-        <v>381074.8468312843</v>
+        <v>381074.8469198343</v>
       </c>
       <c r="LS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT3" t="n">
-        <v>142.5910607370027</v>
+        <v>142.5910609355053</v>
       </c>
       <c r="LU3" t="n">
-        <v>127.2269065089486</v>
+        <v>127.2269065254224</v>
       </c>
       <c r="LV3" t="n">
-        <v>-64.38575045976285</v>
+        <v>-64.38575086682147</v>
       </c>
       <c r="LW3" t="n">
-        <v>-26.84261412290711</v>
+        <v>-26.84261426585801</v>
       </c>
       <c r="LX3" t="n">
-        <v>262.571323078405</v>
+        <v>262.5713234424691</v>
       </c>
       <c r="LY3" t="n">
-        <v>127.2269065089486</v>
+        <v>127.2269065254224</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-229.6889504597629</v>
+        <v>-229.6889508668215</v>
       </c>
       <c r="MA3" t="n">
-        <v>-61.01751206493973</v>
+        <v>-61.01751210483433</v>
       </c>
       <c r="MB3" t="n">
-        <v>234.1851360980947</v>
+        <v>234.1851360909025</v>
       </c>
       <c r="MC3" t="n">
-        <v>57499.99999530862</v>
+        <v>57499.99999851888</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.855993962459461</v>
+        <v>0.8559939625336587</v>
       </c>
       <c r="ME3" t="n">
-        <v>293092.1999668188</v>
+        <v>293092.1999616554</v>
       </c>
       <c r="MF3" t="n">
-        <v>360265.5709449252</v>
+        <v>360265.5709376895</v>
       </c>
       <c r="MG3" t="n">
-        <v>3800.777670979964</v>
+        <v>3800.777670933053</v>
       </c>
       <c r="MH3" t="n">
-        <v>-529820.0652121173</v>
+        <v>-529820.0651810307</v>
       </c>
       <c r="MI3" t="n">
-        <v>715.9876087269181</v>
+        <v>715.9876087268474</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1004.421565411308</v>
+        <v>1004.421565411417</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.402847693408058</v>
+        <v>1.402847693408349</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.9992670944440762</v>
+        <v>0.9992670944439389</v>
       </c>
       <c r="MM3" t="n">
-        <v>306.8632621256662</v>
+        <v>306.8632621209437</v>
       </c>
       <c r="MN3" t="n">
-        <v>80604.72424052191</v>
+        <v>80604.7242450278</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.240622071996713e-05</v>
+        <v>1.240622071927361e-05</v>
       </c>
       <c r="MP3" t="n">
-        <v>57457.92976620433</v>
+        <v>57457.92976940436</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1.740403812091714e-05</v>
+        <v>1.740403811994785e-05</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.004283550528371266</v>
+        <v>0.004283550528504745</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.519974494154389e-05</v>
+        <v>1.519974494116141e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02128989151148142</v>
+        <v>0.02128989151090501</v>
       </c>
       <c r="MU3" t="n">
-        <v>57499.99999530862</v>
+        <v>57499.99999851888</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.855993962459461</v>
+        <v>0.8559939625336587</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.855993962459461</v>
+        <v>0.8559939625336587</v>
       </c>
       <c r="MX3" t="n">
-        <v>293092.1999668188</v>
+        <v>293092.1999616554</v>
       </c>
       <c r="MY3" t="n">
-        <v>360265.5709449252</v>
+        <v>360265.5709376895</v>
       </c>
       <c r="MZ3" t="n">
-        <v>3800.777670979964</v>
+        <v>3800.777670933053</v>
       </c>
       <c r="NA3" t="n">
-        <v>715.9876087269181</v>
+        <v>715.9876087268474</v>
       </c>
       <c r="NB3" t="n">
-        <v>1004.421565411308</v>
+        <v>1004.421565411417</v>
       </c>
       <c r="NC3" t="n">
-        <v>306.8632621256662</v>
+        <v>306.8632621209437</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.9992670944440762</v>
+        <v>0.9992670944439389</v>
       </c>
       <c r="NE3" t="n">
-        <v>1.519974494154389e-05</v>
+        <v>1.519974494116141e-05</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.02128989151148142</v>
+        <v>0.02128989151090501</v>
       </c>
       <c r="NG3" t="n">
-        <v>244.3375267903254</v>
+        <v>244.3375268115934</v>
       </c>
       <c r="NH3" t="n">
-        <v>66682.02876522941</v>
+        <v>66682.02879636367</v>
       </c>
       <c r="NI3" t="n">
-        <v>0.9514112695987009</v>
+        <v>0.9514112699601512</v>
       </c>
       <c r="NJ3" t="n">
-        <v>300344.1852774878</v>
+        <v>300344.1852926523</v>
       </c>
       <c r="NK3" t="n">
-        <v>370431.6762458841</v>
+        <v>370431.6762671459</v>
       </c>
       <c r="NL3" t="n">
-        <v>3800.777670998368</v>
+        <v>3800.777670951457</v>
       </c>
       <c r="NM3" t="n">
-        <v>-558240.9397657502</v>
+        <v>-558240.9398138612</v>
       </c>
       <c r="NN3" t="n">
-        <v>716.16983231497</v>
+        <v>716.1698323154401</v>
       </c>
       <c r="NO3" t="n">
-        <v>1004.669713453048</v>
+        <v>1004.669713453894</v>
       </c>
       <c r="NP3" t="n">
-        <v>1.402837243514603</v>
+        <v>1.402837243514864</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9992959090477107</v>
+        <v>0.9992959090476636</v>
       </c>
       <c r="NR3" t="n">
-        <v>313.4521947835655</v>
+        <v>313.452194797222</v>
       </c>
       <c r="NS3" t="n">
-        <v>93478.32494743222</v>
+        <v>93478.32499109092</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.069766708552333e-05</v>
+        <v>1.069766708052702e-05</v>
       </c>
       <c r="NU3" t="n">
-        <v>66635.18906386886</v>
+        <v>66635.1890949782</v>
       </c>
       <c r="NV3" t="n">
-        <v>1.500708580629244e-05</v>
+        <v>1.500708579928623e-05</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.004105916007917133</v>
+        <v>0.004105916007562606</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.573740359773257e-05</v>
+        <v>1.573740359885157e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.02210374184818057</v>
+        <v>0.02210374184987898</v>
       </c>
       <c r="NZ3" t="n">
-        <v>66682.02876522941</v>
+        <v>66682.02879636367</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.9514112695987009</v>
+        <v>0.9514112699601512</v>
       </c>
       <c r="OB3" t="n">
-        <v>0.9514112695987009</v>
+        <v>0.9514112699601512</v>
       </c>
       <c r="OC3" t="n">
-        <v>300344.1852774878</v>
+        <v>300344.1852926523</v>
       </c>
       <c r="OD3" t="n">
-        <v>370431.6762458841</v>
+        <v>370431.6762671459</v>
       </c>
       <c r="OE3" t="n">
-        <v>3800.777670998368</v>
+        <v>3800.777670951457</v>
       </c>
       <c r="OF3" t="n">
-        <v>716.16983231497</v>
+        <v>716.1698323154401</v>
       </c>
       <c r="OG3" t="n">
-        <v>1004.669713453048</v>
+        <v>1004.669713453894</v>
       </c>
       <c r="OH3" t="n">
-        <v>313.4521947835655</v>
+        <v>313.452194797222</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9992959090477107</v>
+        <v>0.9992959090476636</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1.573740359773257e-05</v>
+        <v>1.573740359885157e-05</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.02210374184818057</v>
+        <v>0.02210374184987898</v>
       </c>
       <c r="OL3" t="n">
-        <v>268.6018582061848</v>
+        <v>268.6018582947918</v>
       </c>
       <c r="OM3" t="n">
-        <v>92809.84592247698</v>
+        <v>92809.84604454278</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.204460602780088</v>
+        <v>1.204460603966497</v>
       </c>
       <c r="OO3" t="n">
-        <v>317682.3093976773</v>
+        <v>317682.3094609768</v>
       </c>
       <c r="OP3" t="n">
-        <v>394737.4207963042</v>
+        <v>394737.4208850483</v>
       </c>
       <c r="OQ3" t="n">
-        <v>3800.777670989694</v>
+        <v>3800.777670942782</v>
       </c>
       <c r="OR3" t="n">
-        <v>-626158.5242601031</v>
+        <v>-626158.5244955337</v>
       </c>
       <c r="OS3" t="n">
-        <v>716.7873582332612</v>
+        <v>716.7873582360932</v>
       </c>
       <c r="OT3" t="n">
-        <v>1005.447913948339</v>
+        <v>1005.447913952028</v>
       </c>
       <c r="OU3" t="n">
-        <v>1.402714350915129</v>
+        <v>1.402714350914733</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9993927849319487</v>
+        <v>0.9993927849322783</v>
       </c>
       <c r="OW3" t="n">
-        <v>328.6654731364096</v>
+        <v>328.6654731906831</v>
       </c>
       <c r="OX3" t="n">
-        <v>130107.0306210944</v>
+        <v>130107.0307922215</v>
       </c>
       <c r="OY3" t="n">
-        <v>7.685979729352678e-06</v>
+        <v>7.68597971924347e-06</v>
       </c>
       <c r="OZ3" t="n">
-        <v>92753.76026217514</v>
+        <v>92753.76038419837</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.078123406720578e-05</v>
+        <v>1.078123405302241e-05</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.003735680730899385</v>
+        <v>0.003735680729671349</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.698850881910355e-05</v>
+        <v>1.69885088235912e-05</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.02400845947648003</v>
+        <v>0.02400845948334157</v>
       </c>
       <c r="PE3" t="n">
-        <v>92809.84592247698</v>
+        <v>92809.84604454278</v>
       </c>
       <c r="PF3" t="n">
-        <v>1.204460602780088</v>
+        <v>1.204460603966497</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.204460602780088</v>
+        <v>1.204460603966497</v>
       </c>
       <c r="PH3" t="n">
-        <v>317682.3093976773</v>
+        <v>317682.3094609768</v>
       </c>
       <c r="PI3" t="n">
-        <v>394737.4207963042</v>
+        <v>394737.4208850483</v>
       </c>
       <c r="PJ3" t="n">
-        <v>3800.777670989694</v>
+        <v>3800.777670942782</v>
       </c>
       <c r="PK3" t="n">
-        <v>716.7873582332612</v>
+        <v>716.7873582360932</v>
       </c>
       <c r="PL3" t="n">
-        <v>1005.447913948339</v>
+        <v>1005.447913952028</v>
       </c>
       <c r="PM3" t="n">
-        <v>328.6654731364096</v>
+        <v>328.6654731906831</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.9993927849319487</v>
+        <v>0.9993927849322783</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.698850881910355e-05</v>
+        <v>1.69885088235912e-05</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.02400845947648003</v>
+        <v>0.02400845948334157</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.4646729613354922</v>
+        <v>0.4646729619895196</v>
       </c>
       <c r="PR3" t="n">
-        <v>0.8556622948591259</v>
+        <v>0.855662296058699</v>
       </c>
       <c r="PS3" t="n">
-        <v>385350.6581580871</v>
+        <v>385350.658735488</v>
       </c>
       <c r="PT3" t="n">
-        <v>2.742649139401929</v>
+        <v>2.742649139994791</v>
       </c>
       <c r="PU3" t="n">
-        <v>381074.8468312843</v>
+        <v>381074.8469198343</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02459644701572052</v>
+        <v>0.02459644690153473</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.002168220951636961</v>
+        <v>0.002168220865570384</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.01188668131071952</v>
+        <v>0.01188668132027357</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.03204646804973708</v>
+        <v>0.0320464679756825</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.04267186614227201</v>
+        <v>0.04267186606837348</v>
       </c>
       <c r="QA3" t="n">
-        <v>0.1133696834700861</v>
+        <v>0.1133696831314347</v>
       </c>
       <c r="QB3" t="n">
-        <v>2.025246359504962e-10</v>
+        <v>5.657189994234813e-11</v>
       </c>
       <c r="QC3" t="n">
         <v>0</v>
@@ -8136,34 +8136,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593440618331848</v>
+        <v>0.01593440613484768</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788006374773876e-07</v>
+        <v>-1.788006365304419e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379068410878776</v>
+        <v>0.01379068410719914</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519148972712752</v>
+        <v>0.02519148974810759</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491640121859628</v>
+        <v>0.05491640118951788</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.392903775798153e-10</v>
+        <v>-1.652001452301377e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758155696329</v>
+        <v>81.75758172066595</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758155696329</v>
+        <v>81.75758172066595</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8172,10 +8172,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758155696329</v>
+        <v>81.75758172066595</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758155696329</v>
+        <v>81.75758172066595</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8184,106 +8184,106 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180863023</v>
+        <v>292.2676180729563</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394594015</v>
+        <v>132637.8394382309</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096286803</v>
+        <v>1.581790096106708</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834849654</v>
+        <v>334589.2834754182</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800176684</v>
+        <v>418442.2800042845</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9626188204</v>
+        <v>-687181.9625817176</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713710257</v>
+        <v>717.7090713704222</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209104117</v>
+        <v>1006.643209103417</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574001</v>
+        <v>1.402578355574206</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723757357</v>
+        <v>0.9994973723756425</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.858412130294</v>
+        <v>342.8584121224587</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4166174117</v>
+        <v>185942.4165877425</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009053510168e-06</v>
+        <v>5.378009054368291e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565942901</v>
+        <v>132571.8565731175</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079094534385e-06</v>
+        <v>7.543079095739065e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00343445503843803</v>
+        <v>0.003434455038594605</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856114228e-05</v>
+        <v>1.816725856048919e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0258179119023141</v>
+        <v>0.02581791190130817</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394594015</v>
+        <v>132637.8394382309</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096286803</v>
+        <v>1.581790096106708</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096286803</v>
+        <v>1.581790096106708</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834849654</v>
+        <v>334589.2834754182</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800176684</v>
+        <v>418442.2800042845</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713710257</v>
+        <v>717.7090713704222</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209104117</v>
+        <v>1006.643209103417</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.858412130294</v>
+        <v>342.8584121224587</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723757357</v>
+        <v>0.9994973723756425</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856114228e-05</v>
+        <v>1.816725856048919e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0258179119023141</v>
+        <v>0.02581791190130817</v>
       </c>
       <c r="AW2" t="n">
         <v>295.6000000001888</v>
       </c>
       <c r="AX2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.999995353</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="AZ2" t="n">
         <v>336973.3475829663</v>
@@ -8292,10 +8292,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BB2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BC2" t="n">
-        <v>-696445.9368990486</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="BD2" t="n">
         <v>717.8632360362602</v>
@@ -8313,16 +8313,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BI2" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="BM2" t="n">
         <v>0.003395798695744087</v>
@@ -8334,13 +8334,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="BP2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BS2" t="n">
         <v>336973.3475829663</v>
@@ -8349,7 +8349,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BU2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BV2" t="n">
         <v>717.8632360362602</v>
@@ -8373,10 +8373,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="CC2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CE2" t="n">
         <v>336973.3475829663</v>
@@ -8385,10 +8385,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="CG2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="CH2" t="n">
-        <v>-696445.9368990486</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="CI2" t="n">
         <v>717.8632360362602</v>
@@ -8406,16 +8406,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CN2" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="CR2" t="n">
         <v>0.003395798695744087</v>
@@ -8427,13 +8427,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="CU2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CX2" t="n">
         <v>336973.3475829663</v>
@@ -8442,7 +8442,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="DA2" t="n">
         <v>717.8632360362602</v>
@@ -8463,16 +8463,16 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2384587300891236</v>
+        <v>0.2384587305720374</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.2384587300891236</v>
+        <v>0.2384587305720374</v>
       </c>
       <c r="DI2" t="n">
-        <v>186219.5319533166</v>
+        <v>186219.532311675</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.776369929354828</v>
+        <v>2.77636993459783</v>
       </c>
       <c r="DK2" t="n">
         <v>421784.4310885898</v>
@@ -8481,340 +8481,340 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>309.3780763051099</v>
+        <v>309.3780806490353</v>
       </c>
       <c r="DN2" t="n">
-        <v>126.4136411073537</v>
+        <v>126.4136428823064</v>
       </c>
       <c r="DO2" t="n">
-        <v>282.3727774418624</v>
+        <v>282.372781406611</v>
       </c>
       <c r="DP2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ2" t="n">
-        <v>309.3780763051099</v>
+        <v>309.3780806490353</v>
       </c>
       <c r="DR2" t="n">
-        <v>126.4136411073537</v>
+        <v>126.4136428823064</v>
       </c>
       <c r="DS2" t="n">
-        <v>282.3727774418624</v>
+        <v>282.372781406611</v>
       </c>
       <c r="DT2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU2" t="n">
-        <v>247.8365051008189</v>
+        <v>247.8365037589831</v>
       </c>
       <c r="DV2" t="n">
-        <v>72726.23797665219</v>
+        <v>72726.23661380621</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.023014671699409</v>
+        <v>1.023014658072507</v>
       </c>
       <c r="DX2" t="n">
-        <v>302836.9118852622</v>
+        <v>302836.9109266887</v>
       </c>
       <c r="DY2" t="n">
-        <v>373927.0340394646</v>
+        <v>373927.0326956494</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3790.093061520453</v>
+        <v>3790.093061473531</v>
       </c>
       <c r="EA2" t="n">
-        <v>-565396.3843346274</v>
+        <v>-565396.3805811313</v>
       </c>
       <c r="EB2" t="n">
-        <v>716.2529430592081</v>
+        <v>716.2529430304593</v>
       </c>
       <c r="EC2" t="n">
-        <v>1004.83158120654</v>
+        <v>1004.831581168904</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.40290045708542</v>
+        <v>1.402900457089184</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.9992812859014809</v>
+        <v>0.9992812858966212</v>
       </c>
       <c r="EF2" t="n">
-        <v>315.6911156530348</v>
+        <v>315.6911147973058</v>
       </c>
       <c r="EG2" t="n">
-        <v>101954.5429482913</v>
+        <v>101954.5410374955</v>
       </c>
       <c r="EH2" t="n">
-        <v>9.808292706556235e-06</v>
+        <v>9.808292890379771e-06</v>
       </c>
       <c r="EI2" t="n">
-        <v>72674.11057809892</v>
+        <v>72674.10921587161</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.376005832125533e-05</v>
+        <v>1.376005857917837e-05</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.004048559442428267</v>
+        <v>0.004048559464305449</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.592113117541242e-05</v>
+        <v>1.59211311053022e-05</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02238288374819543</v>
+        <v>0.02238288364175974</v>
       </c>
       <c r="EN2" t="n">
-        <v>72726.23797665219</v>
+        <v>72726.23661380621</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.023014671699409</v>
+        <v>1.023014658072507</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.023014671699409</v>
+        <v>1.023014658072507</v>
       </c>
       <c r="EQ2" t="n">
-        <v>302836.9118852622</v>
+        <v>302836.9109266887</v>
       </c>
       <c r="ER2" t="n">
-        <v>373927.0340394646</v>
+        <v>373927.0326956494</v>
       </c>
       <c r="ES2" t="n">
-        <v>3790.093061520453</v>
+        <v>3790.093061473531</v>
       </c>
       <c r="ET2" t="n">
-        <v>716.2529430592081</v>
+        <v>716.2529430304593</v>
       </c>
       <c r="EU2" t="n">
-        <v>1004.83158120654</v>
+        <v>1004.831581168904</v>
       </c>
       <c r="EV2" t="n">
-        <v>315.6911156530348</v>
+        <v>315.6911147973058</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.9992812859014809</v>
+        <v>0.9992812858966212</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.592113117541242e-05</v>
+        <v>1.59211311053022e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.02238288374819543</v>
+        <v>0.02238288364175974</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295.5920968648285</v>
+        <v>295.5920968646793</v>
       </c>
       <c r="FA2" t="n">
-        <v>134591.4164651724</v>
+        <v>134591.4164868651</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.586979526155909</v>
+        <v>1.586979526412612</v>
       </c>
       <c r="FC2" t="n">
-        <v>336974.6309325476</v>
+        <v>336974.630932396</v>
       </c>
       <c r="FD2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="FE2" t="n">
-        <v>3790.093061530101</v>
+        <v>3790.093061483179</v>
       </c>
       <c r="FF2" t="n">
-        <v>-698537.1242818299</v>
+        <v>-698537.1242675955</v>
       </c>
       <c r="FG2" t="n">
-        <v>717.8543580605813</v>
+        <v>717.8543580606292</v>
       </c>
       <c r="FH2" t="n">
-        <v>1006.765618719197</v>
+        <v>1006.765618719548</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.402465008973636</v>
+        <v>1.402465008974031</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.9995326648237237</v>
+        <v>0.9995326648236474</v>
       </c>
       <c r="FK2" t="n">
-        <v>344.801116363395</v>
+        <v>344.8011163633304</v>
       </c>
       <c r="FL2" t="n">
-        <v>188672.5201342357</v>
+        <v>188672.5201646839</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.300188916162913e-06</v>
+        <v>5.300188915307562e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>134529.217432891</v>
+        <v>134529.2174545636</v>
       </c>
       <c r="FO2" t="n">
-        <v>7.433329495868386e-06</v>
+        <v>7.433329494670881e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00339557384359356</v>
+        <v>0.003395573843597309</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.832907665245197e-05</v>
+        <v>1.832907665244786e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02606695184415303</v>
+        <v>0.02606695184414885</v>
       </c>
       <c r="FS2" t="n">
-        <v>134591.4164651724</v>
+        <v>134591.4164868651</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.586979526155909</v>
+        <v>1.586979526412612</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.586979526155909</v>
+        <v>1.586979526412612</v>
       </c>
       <c r="FV2" t="n">
-        <v>336974.6309325476</v>
+        <v>336974.630932396</v>
       </c>
       <c r="FW2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="FX2" t="n">
-        <v>3790.093061530101</v>
+        <v>3790.093061483179</v>
       </c>
       <c r="FY2" t="n">
-        <v>717.8543580605813</v>
+        <v>717.8543580606292</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1006.765618719197</v>
+        <v>1006.765618719548</v>
       </c>
       <c r="GA2" t="n">
-        <v>344.801116363395</v>
+        <v>344.8011163633304</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9995326648237237</v>
+        <v>0.9995326648236474</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.832907665245197e-05</v>
+        <v>1.832907665244786e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02606695184415303</v>
+        <v>0.02606695184414885</v>
       </c>
       <c r="GE2" t="n">
-        <v>295.5920968648285</v>
+        <v>295.5920968646793</v>
       </c>
       <c r="GF2" t="n">
-        <v>134591.4164651724</v>
+        <v>134591.4164868651</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.586979526155909</v>
+        <v>1.586979526412612</v>
       </c>
       <c r="GH2" t="n">
-        <v>336974.6309325476</v>
+        <v>336974.630932396</v>
       </c>
       <c r="GI2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="GJ2" t="n">
-        <v>3790.093061530101</v>
+        <v>3790.093061483179</v>
       </c>
       <c r="GK2" t="n">
-        <v>-698537.1242818299</v>
+        <v>-698537.1242675955</v>
       </c>
       <c r="GL2" t="n">
-        <v>717.8543580605813</v>
+        <v>717.8543580606292</v>
       </c>
       <c r="GM2" t="n">
-        <v>1006.765618719197</v>
+        <v>1006.765618719548</v>
       </c>
       <c r="GN2" t="n">
-        <v>1.402465008973636</v>
+        <v>1.402465008974031</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.9995326648237237</v>
+        <v>0.9995326648236474</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.801116363395</v>
+        <v>344.8011163633304</v>
       </c>
       <c r="GQ2" t="n">
-        <v>188672.5201342357</v>
+        <v>188672.5201646839</v>
       </c>
       <c r="GR2" t="n">
-        <v>5.300188916162913e-06</v>
+        <v>5.300188915307562e-06</v>
       </c>
       <c r="GS2" t="n">
-        <v>134529.217432891</v>
+        <v>134529.2174545636</v>
       </c>
       <c r="GT2" t="n">
-        <v>7.433329495868386e-06</v>
+        <v>7.433329494670881e-06</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.00339557384359356</v>
+        <v>0.003395573843597309</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.832907665245197e-05</v>
+        <v>1.832907665244786e-05</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.02606695184415303</v>
+        <v>0.02606695184414885</v>
       </c>
       <c r="GX2" t="n">
-        <v>134591.4164651724</v>
+        <v>134591.4164868651</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.586979526155909</v>
+        <v>1.586979526412612</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.586979526155909</v>
+        <v>1.586979526412612</v>
       </c>
       <c r="HA2" t="n">
-        <v>336974.6309325476</v>
+        <v>336974.630932396</v>
       </c>
       <c r="HB2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="HC2" t="n">
-        <v>3790.093061530101</v>
+        <v>3790.093061483179</v>
       </c>
       <c r="HD2" t="n">
-        <v>717.8543580605813</v>
+        <v>717.8543580606292</v>
       </c>
       <c r="HE2" t="n">
-        <v>1006.765618719197</v>
+        <v>1006.765618719548</v>
       </c>
       <c r="HF2" t="n">
-        <v>344.801116363395</v>
+        <v>344.8011163633304</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.9995326648237237</v>
+        <v>0.9995326648236474</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832907665245197e-05</v>
+        <v>1.832907665244786e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606695184415303</v>
+        <v>0.02606695184414885</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.01619337326735157</v>
+        <v>0.0161933732757355</v>
       </c>
       <c r="HK2" t="n">
-        <v>-1.97200576276944e-07</v>
+        <v>-1.972005795267431e-07</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.01379727827864121</v>
+        <v>0.0137972782786793</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.02510093007411923</v>
+        <v>0.02510093007320651</v>
       </c>
       <c r="HN2" t="n">
         <v>0</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.05509138441953573</v>
+        <v>0.0550913844270418</v>
       </c>
       <c r="HP2" t="n">
-        <v>5.579873756648979e-06</v>
+        <v>5.578282546658819e-06</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9800024801620854</v>
+        <v>0.9800024965785816</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9800024801620854</v>
+        <v>0.9800024965785816</v>
       </c>
       <c r="HS2" t="n">
-        <v>520038.1636696377</v>
+        <v>520038.1663343592</v>
       </c>
       <c r="HT2" t="n">
-        <v>2.776362989738147</v>
+        <v>2.776362991738497</v>
       </c>
       <c r="HU2" t="n">
         <v>421784.4310885898</v>
@@ -8823,733 +8823,733 @@
         <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>1473.439591214934</v>
+        <v>1473.439598262019</v>
       </c>
       <c r="HX2" t="n">
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.006566863969865153</v>
+        <v>0.006566863960451821</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-7.368705495083895e-08</v>
+        <v>-7.368705467910609e-08</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.01038187958390864</v>
+        <v>0.01038187960925352</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.005683396390924058</v>
+        <v>0.005683396399410743</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.02447288218978874</v>
+        <v>0.02447288202655256</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.001918869916696828</v>
+        <v>0.001918869764584496</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.01189012427595623</v>
+        <v>0.01189012429133729</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.03198084326462634</v>
+        <v>0.031980843139544</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.04237646483535108</v>
+        <v>0.04237646467669577</v>
       </c>
       <c r="II2" t="n">
-        <v>0.1126391844824192</v>
+        <v>0.1126391838987141</v>
       </c>
       <c r="IJ2" t="n">
-        <v>9.850338600347897e-11</v>
+        <v>1.380141279039293e-10</v>
       </c>
       <c r="IK2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL2" t="n">
-        <v>272.023797573539</v>
+        <v>272.0237978545399</v>
       </c>
       <c r="IM2" t="n">
-        <v>111.9807682056515</v>
+        <v>111.980768535081</v>
       </c>
       <c r="IN2" t="n">
-        <v>247.9057361143583</v>
+        <v>247.9057362738914</v>
       </c>
       <c r="IO2" t="n">
-        <v>65.69097058095267</v>
+        <v>65.69097053155019</v>
       </c>
       <c r="IP2" t="n">
-        <v>139.1505351065949</v>
+        <v>139.1505354664039</v>
       </c>
       <c r="IQ2" t="n">
-        <v>111.9807682056515</v>
+        <v>111.980768535081</v>
       </c>
       <c r="IR2" t="n">
-        <v>82.60253611435829</v>
+        <v>82.60253627389145</v>
       </c>
       <c r="IS2" t="n">
-        <v>36.41431510916398</v>
+        <v>36.41431508150551</v>
       </c>
       <c r="IT2" t="n">
-        <v>258.6798008342747</v>
+        <v>258.6798007581448</v>
       </c>
       <c r="IU2" t="n">
-        <v>84891.32880575013</v>
+        <v>84891.32871215032</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.144036535025713</v>
+        <v>1.144036534101327</v>
       </c>
       <c r="IW2" t="n">
-        <v>310582.6206406473</v>
+        <v>310582.6205862673</v>
       </c>
       <c r="IX2" t="n">
-        <v>384785.9578652248</v>
+        <v>384785.957788986</v>
       </c>
       <c r="IY2" t="n">
-        <v>3788.609748060245</v>
+        <v>3788.609748081803</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-595250.8572017911</v>
+        <v>-595250.8569951801</v>
       </c>
       <c r="JA2" t="n">
-        <v>716.5135610154729</v>
+        <v>716.5135610134387</v>
       </c>
       <c r="JB2" t="n">
-        <v>1005.174772346963</v>
+        <v>1005.174772344281</v>
       </c>
       <c r="JC2" t="n">
-        <v>1.402869152849511</v>
+        <v>1.402869152849751</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.9993202541144052</v>
+        <v>0.9993202541141269</v>
       </c>
       <c r="JE2" t="n">
-        <v>322.532290915686</v>
+        <v>322.5322908681621</v>
       </c>
       <c r="JF2" t="n">
-        <v>119010.7786457134</v>
+        <v>119010.7785144807</v>
       </c>
       <c r="JG2" t="n">
-        <v>8.402600263434365e-06</v>
+        <v>8.402600272699879e-06</v>
       </c>
       <c r="JH2" t="n">
-        <v>84833.84099221112</v>
+        <v>84833.84089865067</v>
       </c>
       <c r="JI2" t="n">
-        <v>1.178774871329725e-05</v>
+        <v>1.178774872629757e-05</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.003879255079612191</v>
+        <v>0.003879255080750597</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.648304724066051e-05</v>
+        <v>1.648304723674746e-05</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.02323755461888699</v>
+        <v>0.02323755461292406</v>
       </c>
       <c r="JM2" t="n">
-        <v>84891.32880575013</v>
+        <v>84891.32871215032</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.144036535025713</v>
+        <v>1.144036534101327</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.144036535025713</v>
+        <v>1.144036534101327</v>
       </c>
       <c r="JP2" t="n">
-        <v>310582.6206406473</v>
+        <v>310582.6205862673</v>
       </c>
       <c r="JQ2" t="n">
-        <v>384785.9578652248</v>
+        <v>384785.957788986</v>
       </c>
       <c r="JR2" t="n">
-        <v>3788.609748060245</v>
+        <v>3788.609748081803</v>
       </c>
       <c r="JS2" t="n">
-        <v>716.5135610154729</v>
+        <v>716.5135610134387</v>
       </c>
       <c r="JT2" t="n">
-        <v>1005.174772346963</v>
+        <v>1005.174772344281</v>
       </c>
       <c r="JU2" t="n">
-        <v>322.532290915686</v>
+        <v>322.5322908681621</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9993202541144052</v>
+        <v>0.9993202541141269</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.648304724066051e-05</v>
+        <v>1.648304723674746e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02323755461888699</v>
+        <v>0.02323755461292406</v>
       </c>
       <c r="JY2" t="n">
-        <v>295.59371448625</v>
+        <v>295.5937144863261</v>
       </c>
       <c r="JZ2" t="n">
-        <v>135289.0393273584</v>
+        <v>135289.0393173533</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.595200320646365</v>
+        <v>1.595200320527927</v>
       </c>
       <c r="KB2" t="n">
-        <v>336974.3683167496</v>
+        <v>336974.3683168248</v>
       </c>
       <c r="KC2" t="n">
-        <v>421784.4310883895</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.609748065445</v>
+        <v>3788.609748087002</v>
       </c>
       <c r="KE2" t="n">
-        <v>-698104.7970810913</v>
+        <v>-698104.7970876516</v>
       </c>
       <c r="KF2" t="n">
-        <v>717.8561751867729</v>
+        <v>717.856175186751</v>
       </c>
       <c r="KG2" t="n">
-        <v>1006.777073038603</v>
+        <v>1006.777073038441</v>
       </c>
       <c r="KH2" t="n">
-        <v>1.402477415168377</v>
+        <v>1.402477415168194</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.9995302899915051</v>
+        <v>0.9995302899915404</v>
       </c>
       <c r="KJ2" t="n">
-        <v>344.8027749233461</v>
+        <v>344.8027749233801</v>
       </c>
       <c r="KK2" t="n">
-        <v>189651.696895799</v>
+        <v>189651.6968817555</v>
       </c>
       <c r="KL2" t="n">
-        <v>5.272823899642898e-06</v>
+        <v>5.272823900033345e-06</v>
       </c>
       <c r="KM2" t="n">
-        <v>135226.2038907986</v>
+        <v>135226.2038808028</v>
       </c>
       <c r="KN2" t="n">
-        <v>7.395016433409212e-06</v>
+        <v>7.395016433955844e-06</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.003395619870063451</v>
+        <v>0.003395619870061637</v>
       </c>
       <c r="KP2" t="n">
-        <v>1.83292557442664e-05</v>
+        <v>1.832925574426864e-05</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.02606729613576118</v>
+        <v>0.02606729613576364</v>
       </c>
       <c r="KR2" t="n">
-        <v>135289.0393273584</v>
+        <v>135289.0393173533</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.595200320646365</v>
+        <v>1.595200320527927</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200320646365</v>
+        <v>1.595200320527927</v>
       </c>
       <c r="KU2" t="n">
-        <v>336974.3683167496</v>
+        <v>336974.3683168248</v>
       </c>
       <c r="KV2" t="n">
-        <v>421784.4310883895</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KW2" t="n">
-        <v>3788.609748065445</v>
+        <v>3788.609748087002</v>
       </c>
       <c r="KX2" t="n">
-        <v>717.8561751867729</v>
+        <v>717.856175186751</v>
       </c>
       <c r="KY2" t="n">
-        <v>1006.777073038603</v>
+        <v>1006.777073038441</v>
       </c>
       <c r="KZ2" t="n">
-        <v>344.8027749233461</v>
+        <v>344.8027749233801</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9995302899915051</v>
+        <v>0.9995302899915404</v>
       </c>
       <c r="LB2" t="n">
-        <v>1.83292557442664e-05</v>
+        <v>1.832925574426864e-05</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.02606729613576118</v>
+        <v>0.02606729613576364</v>
       </c>
       <c r="LD2" t="n">
-        <v>268.3436842358976</v>
+        <v>268.3436842095572</v>
       </c>
       <c r="LE2" t="n">
-        <v>96492.2486667404</v>
+        <v>96492.24862643357</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.253488950425609</v>
+        <v>1.253488950025148</v>
       </c>
       <c r="LG2" t="n">
-        <v>317488.4552018992</v>
+        <v>317488.4551830902</v>
       </c>
       <c r="LH2" t="n">
-        <v>394467.3935754504</v>
+        <v>394467.3935490788</v>
       </c>
       <c r="LI2" t="n">
-        <v>3788.609748066892</v>
+        <v>3788.609748088448</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-622182.1043528554</v>
+        <v>-622182.1042852175</v>
       </c>
       <c r="LK2" t="n">
-        <v>716.7921572798538</v>
+        <v>716.792157279006</v>
       </c>
       <c r="LL2" t="n">
-        <v>1005.52059112159</v>
+        <v>1005.520591120432</v>
       </c>
       <c r="LM2" t="n">
-        <v>1.402806351756733</v>
+        <v>1.402806351756777</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.9993653998624354</v>
+        <v>0.9993653998623504</v>
       </c>
       <c r="LO2" t="n">
-        <v>328.5092924482252</v>
+        <v>328.5092924320789</v>
       </c>
       <c r="LP2" t="n">
-        <v>135274.4658224346</v>
+        <v>135274.46576592</v>
       </c>
       <c r="LQ2" t="n">
-        <v>7.392378110090861e-06</v>
+        <v>7.392378113179228e-06</v>
       </c>
       <c r="LR2" t="n">
-        <v>96431.31830208107</v>
+        <v>96431.31826179125</v>
       </c>
       <c r="LS2" t="n">
-        <v>1.037007496742289e-05</v>
+        <v>1.03700749717556e-05</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.003739816483592685</v>
+        <v>0.003739816483958097</v>
       </c>
       <c r="LU2" t="n">
-        <v>1.697604497981114e-05</v>
+        <v>1.697604497847597e-05</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.02398989780721099</v>
+        <v>0.02398989780516931</v>
       </c>
       <c r="LW2" t="n">
-        <v>96492.2486667404</v>
+        <v>96492.24862643357</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.253488950425609</v>
+        <v>1.253488950025148</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.253488950425609</v>
+        <v>1.253488950025148</v>
       </c>
       <c r="LZ2" t="n">
-        <v>317488.4552018992</v>
+        <v>317488.4551830902</v>
       </c>
       <c r="MA2" t="n">
-        <v>394467.3935754504</v>
+        <v>394467.3935490788</v>
       </c>
       <c r="MB2" t="n">
-        <v>3788.609748066892</v>
+        <v>3788.609748088448</v>
       </c>
       <c r="MC2" t="n">
-        <v>716.7921572798538</v>
+        <v>716.792157279006</v>
       </c>
       <c r="MD2" t="n">
-        <v>1005.52059112159</v>
+        <v>1005.520591120432</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.5092924482252</v>
+        <v>328.5092924320789</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.9993653998624354</v>
+        <v>0.9993653998623504</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.697604497981114e-05</v>
+        <v>1.697604497847597e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02398989780721099</v>
+        <v>0.02398989780516931</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.8434001966167457</v>
+        <v>0.8434001976122509</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.4314313295935093</v>
+        <v>0.4314313307726541</v>
       </c>
       <c r="MK2" t="n">
-        <v>251687.5207586898</v>
+        <v>251687.5212658775</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.750323502690797</v>
+        <v>2.750323508559537</v>
       </c>
       <c r="MM2" t="n">
-        <v>380804.8196104307</v>
+        <v>380804.8195840592</v>
       </c>
       <c r="MN2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO2" t="n">
-        <v>165.5472217021058</v>
+        <v>165.5472207059225</v>
       </c>
       <c r="MP2" t="n">
-        <v>139.8410666814731</v>
+        <v>139.8410661330597</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-88.60224987365709</v>
+        <v>-88.60224887791856</v>
       </c>
       <c r="MR2" t="n">
-        <v>-32.35804004543573</v>
+        <v>-32.35803985591003</v>
       </c>
       <c r="MS2" t="n">
-        <v>289.8680758658263</v>
+        <v>289.8680747290534</v>
       </c>
       <c r="MT2" t="n">
-        <v>139.8410666814731</v>
+        <v>139.8410661330597</v>
       </c>
       <c r="MU2" t="n">
-        <v>-253.9054498736571</v>
+        <v>-253.9054488779186</v>
       </c>
       <c r="MV2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW2" t="n">
-        <v>226.3832929800747</v>
+        <v>226.3832932828262</v>
       </c>
       <c r="MX2" t="n">
-        <v>50711.02183607897</v>
+        <v>50711.02206488144</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.7809539841037584</v>
+        <v>0.7809539865823703</v>
       </c>
       <c r="MZ2" t="n">
-        <v>287520.9311375704</v>
+        <v>287520.9313538265</v>
       </c>
       <c r="NA2" t="n">
-        <v>352455.6428725725</v>
+        <v>352455.6431757154</v>
       </c>
       <c r="NB2" t="n">
-        <v>3802.8987991189</v>
+        <v>3802.898799163802</v>
       </c>
       <c r="NC2" t="n">
-        <v>-508457.1101419358</v>
+        <v>-508457.1110002912</v>
       </c>
       <c r="ND2" t="n">
-        <v>715.8712582924992</v>
+        <v>715.8712582964959</v>
       </c>
       <c r="NE2" t="n">
-        <v>1004.245344646636</v>
+        <v>1004.245344652342</v>
       </c>
       <c r="NF2" t="n">
-        <v>1.402829535358031</v>
+        <v>1.40282953535817</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.9992549629915213</v>
+        <v>0.9992549629922428</v>
       </c>
       <c r="NH2" t="n">
-        <v>301.7027544430068</v>
+        <v>301.7027546449807</v>
       </c>
       <c r="NI2" t="n">
-        <v>71085.98656572434</v>
+        <v>71085.9868865154</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1.406747023304551e-05</v>
+        <v>1.406747016956297e-05</v>
       </c>
       <c r="NK2" t="n">
-        <v>50673.28907327413</v>
+        <v>50673.28930194341</v>
       </c>
       <c r="NL2" t="n">
-        <v>1.973426273068616e-05</v>
+        <v>1.973426264163294e-05</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.004430768961103065</v>
+        <v>0.004430768955187534</v>
       </c>
       <c r="NN2" t="n">
-        <v>1.478048793913538e-05</v>
+        <v>1.478048795550475e-05</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.02065714928603938</v>
+        <v>0.02065714931070654</v>
       </c>
       <c r="NP2" t="n">
-        <v>50711.02183607897</v>
+        <v>50711.02206488144</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7809539841037584</v>
+        <v>0.7809539865823703</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.7809539841037584</v>
+        <v>0.7809539865823703</v>
       </c>
       <c r="NS2" t="n">
-        <v>287520.9311375704</v>
+        <v>287520.9313538265</v>
       </c>
       <c r="NT2" t="n">
-        <v>352455.6428725725</v>
+        <v>352455.6431757154</v>
       </c>
       <c r="NU2" t="n">
-        <v>3802.8987991189</v>
+        <v>3802.898799163802</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8712582924992</v>
+        <v>715.8712582964959</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.245344646636</v>
+        <v>1004.245344652342</v>
       </c>
       <c r="NX2" t="n">
-        <v>301.7027544430068</v>
+        <v>301.7027546449807</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992549629915213</v>
+        <v>0.9992549629922428</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.478048793913538e-05</v>
+        <v>1.478048795550475e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.02065714928603938</v>
+        <v>0.02065714931070654</v>
       </c>
       <c r="OB2" t="n">
-        <v>240.0687876859674</v>
+        <v>240.0687878241713</v>
       </c>
       <c r="OC2" t="n">
-        <v>62242.23265451773</v>
+        <v>62242.23276989425</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9038626933376512</v>
+        <v>0.903862694492315</v>
       </c>
       <c r="OE2" t="n">
-        <v>297296.0975277754</v>
+        <v>297296.0976265251</v>
       </c>
       <c r="OF2" t="n">
-        <v>366158.5841790154</v>
+        <v>366158.5843174431</v>
       </c>
       <c r="OG2" t="n">
-        <v>3802.898799114078</v>
+        <v>3802.898799158979</v>
       </c>
       <c r="OH2" t="n">
-        <v>-546798.7202167225</v>
+        <v>-546798.7206146495</v>
       </c>
       <c r="OI2" t="n">
-        <v>716.0862823312966</v>
+        <v>716.0862823337743</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1004.547869993262</v>
+        <v>1004.547869996411</v>
       </c>
       <c r="OK2" t="n">
-        <v>1.402830768832559</v>
+        <v>1.402830768832102</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.9992882291427264</v>
+        <v>0.9992882291432338</v>
       </c>
       <c r="OM2" t="n">
-        <v>310.6988847958271</v>
+        <v>310.6988848853673</v>
       </c>
       <c r="ON2" t="n">
-        <v>87253.2977666153</v>
+        <v>87253.29792837038</v>
       </c>
       <c r="OO2" t="n">
-        <v>1.146088486735246e-05</v>
+        <v>1.146088484610563e-05</v>
       </c>
       <c r="OP2" t="n">
-        <v>62198.02110501741</v>
+        <v>62198.02122034385</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1.60776819299695e-05</v>
+        <v>1.607768190015855e-05</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.004178679784373062</v>
+        <v>0.004178679781970188</v>
       </c>
       <c r="OS2" t="n">
-        <v>1.551232155451033e-05</v>
+        <v>1.551232156181815e-05</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.02176262156929227</v>
+        <v>0.02176262158035559</v>
       </c>
       <c r="OU2" t="n">
-        <v>62242.23265451773</v>
+        <v>62242.23276989425</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9038626933376512</v>
+        <v>0.903862694492315</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.9038626933376512</v>
+        <v>0.903862694492315</v>
       </c>
       <c r="OX2" t="n">
-        <v>297296.0975277754</v>
+        <v>297296.0976265251</v>
       </c>
       <c r="OY2" t="n">
-        <v>366158.5841790154</v>
+        <v>366158.5843174431</v>
       </c>
       <c r="OZ2" t="n">
-        <v>3802.898799114078</v>
+        <v>3802.898799158979</v>
       </c>
       <c r="PA2" t="n">
-        <v>716.0862823312966</v>
+        <v>716.0862823337743</v>
       </c>
       <c r="PB2" t="n">
-        <v>1004.547869993262</v>
+        <v>1004.547869996411</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.6988847958271</v>
+        <v>310.6988848853673</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9992882291427264</v>
+        <v>0.9992882291432338</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.551232155451033e-05</v>
+        <v>1.551232156181815e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.02176262156929227</v>
+        <v>0.02176262158035559</v>
       </c>
       <c r="PG2" t="n">
-        <v>268.330454265197</v>
+        <v>268.3304542389383</v>
       </c>
       <c r="PH2" t="n">
-        <v>91803.71120815298</v>
+        <v>91803.71116468089</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.192604569148692</v>
+        <v>1.192604568700717</v>
       </c>
       <c r="PJ2" t="n">
-        <v>317489.8994562749</v>
+        <v>317489.8994375338</v>
       </c>
       <c r="PK2" t="n">
-        <v>394467.3935754569</v>
+        <v>394467.3935491792</v>
       </c>
       <c r="PL2" t="n">
-        <v>3802.898799115239</v>
+        <v>3802.898799153154</v>
       </c>
       <c r="PM2" t="n">
-        <v>-625966.1687157073</v>
+        <v>-625966.1686522997</v>
       </c>
       <c r="PN2" t="n">
-        <v>716.7766612280308</v>
+        <v>716.776661227171</v>
       </c>
       <c r="PO2" t="n">
-        <v>1005.423563380396</v>
+        <v>1005.423563379151</v>
       </c>
       <c r="PP2" t="n">
-        <v>1.402701312369512</v>
+        <v>1.402701312369458</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9993959226408955</v>
+        <v>0.9993959226408493</v>
       </c>
       <c r="PR2" t="n">
-        <v>328.498879094267</v>
+        <v>328.4988790781716</v>
       </c>
       <c r="PS2" t="n">
-        <v>128695.7641427891</v>
+        <v>128695.7640818361</v>
       </c>
       <c r="PT2" t="n">
-        <v>7.770263509920119e-06</v>
+        <v>7.770263513600277e-06</v>
       </c>
       <c r="PU2" t="n">
-        <v>91748.51624355424</v>
+        <v>91748.5162001038</v>
       </c>
       <c r="PV2" t="n">
-        <v>1.089935882282189e-05</v>
+        <v>1.089935882798362e-05</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.003739359131145636</v>
+        <v>0.003739359131509249</v>
       </c>
       <c r="PX2" t="n">
-        <v>1.697466410278451e-05</v>
+        <v>1.697466410145293e-05</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.02398721462677694</v>
+        <v>0.02398721462474024</v>
       </c>
       <c r="PZ2" t="n">
-        <v>91803.71120815298</v>
+        <v>91803.71116468089</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.192604569148692</v>
+        <v>1.192604568700717</v>
       </c>
       <c r="QB2" t="n">
-        <v>1.192604569148692</v>
+        <v>1.192604568700717</v>
       </c>
       <c r="QC2" t="n">
-        <v>317489.8994562749</v>
+        <v>317489.8994375338</v>
       </c>
       <c r="QD2" t="n">
-        <v>394467.3935754569</v>
+        <v>394467.3935491792</v>
       </c>
       <c r="QE2" t="n">
-        <v>3802.898799115239</v>
+        <v>3802.898799153154</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.7766612280308</v>
+        <v>716.776661227171</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.423563380396</v>
+        <v>1005.423563379151</v>
       </c>
       <c r="QH2" t="n">
-        <v>328.498879094267</v>
+        <v>328.4988790781716</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993959226408955</v>
+        <v>0.9993959226408493</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.697466410278451e-05</v>
+        <v>1.697466410145293e-05</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.02398721462677694</v>
+        <v>0.02398721462474024</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.02454735563972994</v>
+        <v>0.0245473557431075</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.002565106111702457</v>
+        <v>0.002565106083969048</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.01188196848139182</v>
+        <v>0.01188196848270755</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.03211970591623747</v>
+        <v>0.032119705903622</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.04296617882249625</v>
+        <v>0.04296617880409803</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.1140803149715579</v>
+        <v>0.1140803150175041</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.631706279328626e-05</v>
+        <v>1.631784986314e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.5487096795245816</v>
+        <v>0.5487096758553796</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9607737138527974</v>
+        <v>0.9607737094417538</v>
       </c>
       <c r="QU2" t="n">
-        <v>399127.3352087593</v>
+        <v>399127.334468233</v>
       </c>
       <c r="QV2" t="n">
-        <v>2.750304356240023</v>
+        <v>2.750304354183168</v>
       </c>
       <c r="QW2" t="n">
-        <v>380804.8196104307</v>
+        <v>380804.8195840592</v>
       </c>
       <c r="QX2" t="n">
         <v>0</v>
       </c>
       <c r="QY2" t="n">
-        <v>2666.336740099359</v>
+        <v>2666.336739454477</v>
       </c>
       <c r="QZ2" t="n">
-        <v>6.130850365755315</v>
+        <v>6.130850095279555</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.008898206697206765</v>
+        <v>0.00889820664885678</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.0006976906525110719</v>
+        <v>0.0006976905980664858</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.01162806045944008</v>
+        <v>0.01162806042833784</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01540785185323212</v>
+        <v>0.01540785181459629</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.004323184439104587</v>
+        <v>0.004323184450042272</v>
       </c>
     </row>
     <row r="3">
@@ -9557,34 +9557,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595100148426873</v>
+        <v>0.0159510014692575</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793991211555842e-07</v>
+        <v>-1.793991198663737e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0137912303809289</v>
+        <v>0.01379123038043169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518399104484519</v>
+        <v>0.02518399105148189</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492604351092167</v>
+        <v>0.05492604350205121</v>
       </c>
       <c r="H3" t="n">
-        <v>1.992607467915519e-12</v>
+        <v>-4.315985069336392e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172544914</v>
+        <v>81.75758172546657</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172544914</v>
+        <v>81.75758172546657</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9593,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172544914</v>
+        <v>81.75758172546657</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172544914</v>
+        <v>81.75758172546657</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9605,25 +9605,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180724662</v>
+        <v>292.2676180724649</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394374532</v>
+        <v>132637.8394374511</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096100092</v>
+        <v>1.581790096100073</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834750676</v>
+        <v>334589.2834750665</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.280003793</v>
+        <v>418442.2800037916</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625803552</v>
+        <v>-687181.962580352</v>
       </c>
       <c r="Y3" t="n">
         <v>717.7090713704001</v>
@@ -9638,43 +9638,43 @@
         <v>0.9994973723756391</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.858412122171</v>
+        <v>342.8584121221702</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165866527</v>
+        <v>185942.4165866497</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054399811e-06</v>
+        <v>5.3780090543999e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565723397</v>
+        <v>132571.8565723376</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095783316e-06</v>
+        <v>7.543079095783437e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038600355</v>
+        <v>0.003434455038600368</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856046521e-05</v>
+        <v>1.816725856046514e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190127123</v>
+        <v>0.02581791190127112</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394374532</v>
+        <v>132637.8394374511</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096100092</v>
+        <v>1.581790096100073</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096100092</v>
+        <v>1.581790096100073</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834750676</v>
+        <v>334589.2834750665</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.280003793</v>
+        <v>418442.2800037916</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723465</v>
@@ -9686,16 +9686,16 @@
         <v>1006.643209103391</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.858412122171</v>
+        <v>342.8584121221702</v>
       </c>
       <c r="AT3" t="n">
         <v>0.9994973723756391</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856046521e-05</v>
+        <v>1.816725856046514e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190127123</v>
+        <v>0.02581791190127112</v>
       </c>
       <c r="AW3" t="n">
         <v>295.6000000001888</v>
@@ -9884,16 +9884,16 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2384587305861885</v>
+        <v>0.2384587305862398</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2384587305861885</v>
+        <v>0.2384587305862398</v>
       </c>
       <c r="DI3" t="n">
-        <v>186219.5323220366</v>
+        <v>186219.5323220748</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.776369934748648</v>
+        <v>2.776369934749207</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -9902,340 +9902,340 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>309.3780753541239</v>
+        <v>309.3780765460956</v>
       </c>
       <c r="DN3" t="n">
-        <v>126.4136407187755</v>
+        <v>126.4136412058219</v>
       </c>
       <c r="DO3" t="n">
-        <v>282.372776573887</v>
+        <v>282.3727776618127</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>309.3780753541239</v>
+        <v>309.3780765460956</v>
       </c>
       <c r="DR3" t="n">
-        <v>126.4136407187755</v>
+        <v>126.4136412058219</v>
       </c>
       <c r="DS3" t="n">
-        <v>282.372776573887</v>
+        <v>282.3727776618127</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>247.836505394713</v>
+        <v>247.8365050265389</v>
       </c>
       <c r="DV3" t="n">
-        <v>72726.23833980112</v>
+        <v>72726.23795146636</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.023014675594131</v>
+        <v>1.023014671652523</v>
       </c>
       <c r="DX3" t="n">
-        <v>302836.9120950443</v>
+        <v>302836.9118320676</v>
       </c>
       <c r="DY3" t="n">
-        <v>373927.0343335784</v>
+        <v>373927.0339649089</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3790.093061274866</v>
+        <v>3790.093061318963</v>
       </c>
       <c r="EA3" t="n">
-        <v>-565396.3850935342</v>
+        <v>-565396.3840777186</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.252943065766</v>
+        <v>716.2529430578198</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.831581216407</v>
+        <v>1004.831581205719</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402900457086351</v>
+        <v>1.402900457086992</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.999281285901908</v>
+        <v>0.9992812859007165</v>
       </c>
       <c r="EF3" t="n">
-        <v>315.6911158404567</v>
+        <v>315.6911156056617</v>
       </c>
       <c r="EG3" t="n">
-        <v>101954.543457501</v>
+        <v>101954.5429130196</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.808292657568936e-06</v>
+        <v>9.808292709949461e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72674.11094101991</v>
+        <v>72674.1105528755</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.376005825254016e-05</v>
+        <v>1.376005832603111e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004048559437648772</v>
+        <v>0.004048559443648752</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.592113119077846e-05</v>
+        <v>1.592113117153928e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0223828837715324</v>
+        <v>0.02238288374232291</v>
       </c>
       <c r="EN3" t="n">
-        <v>72726.23833980112</v>
+        <v>72726.23795146636</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.023014675594131</v>
+        <v>1.023014671652523</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.023014675594131</v>
+        <v>1.023014671652523</v>
       </c>
       <c r="EQ3" t="n">
-        <v>302836.9120950443</v>
+        <v>302836.9118320676</v>
       </c>
       <c r="ER3" t="n">
-        <v>373927.0343335784</v>
+        <v>373927.0339649089</v>
       </c>
       <c r="ES3" t="n">
-        <v>3790.093061274866</v>
+        <v>3790.093061318963</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.252943065766</v>
+        <v>716.2529430578198</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.831581216407</v>
+        <v>1004.831581205719</v>
       </c>
       <c r="EV3" t="n">
-        <v>315.6911158404567</v>
+        <v>315.6911156056617</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.999281285901908</v>
+        <v>0.9992812859007165</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.592113119077846e-05</v>
+        <v>1.592113117153928e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0223828837715324</v>
+        <v>0.02238288374232291</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5920968650956</v>
+        <v>295.5920968650477</v>
       </c>
       <c r="FA3" t="n">
-        <v>134591.4165803776</v>
+        <v>134591.416559691</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.586979527513492</v>
+        <v>1.586979527269722</v>
       </c>
       <c r="FC3" t="n">
-        <v>336974.6309325041</v>
+        <v>336974.6309325119</v>
       </c>
       <c r="FD3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="FE3" t="n">
-        <v>3790.093061284515</v>
+        <v>3790.093061328611</v>
       </c>
       <c r="FF3" t="n">
-        <v>-698537.1242102488</v>
+        <v>-698537.1242231018</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.8543580608813</v>
+        <v>717.8543580608273</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.765618721089</v>
+        <v>1006.765618720749</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.402465008975685</v>
+        <v>1.402465008975317</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.9995326648233315</v>
+        <v>0.999532664823402</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.8011163636688</v>
+        <v>344.8011163636197</v>
       </c>
       <c r="FL3" t="n">
-        <v>188672.5202959354</v>
+        <v>188672.5202669003</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.300188911620444e-06</v>
+        <v>5.300188912436098e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>134529.2175479913</v>
+        <v>134529.2175273237</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.43332948950859e-06</v>
+        <v>7.433329490650567e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395573843601162</v>
+        <v>0.003395573843599795</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832907665248154e-05</v>
+        <v>1.832907665247623e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02606695184420988</v>
+        <v>0.02606695184419967</v>
       </c>
       <c r="FS3" t="n">
-        <v>134591.4165803776</v>
+        <v>134591.416559691</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.586979527513492</v>
+        <v>1.586979527269722</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.586979527513492</v>
+        <v>1.586979527269722</v>
       </c>
       <c r="FV3" t="n">
-        <v>336974.6309325041</v>
+        <v>336974.6309325119</v>
       </c>
       <c r="FW3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="FX3" t="n">
-        <v>3790.093061284515</v>
+        <v>3790.093061328611</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.8543580608813</v>
+        <v>717.8543580608273</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.765618721089</v>
+        <v>1006.765618720749</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.8011163636688</v>
+        <v>344.8011163636197</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9995326648233315</v>
+        <v>0.999532664823402</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832907665248154e-05</v>
+        <v>1.832907665247623e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02606695184420988</v>
+        <v>0.02606695184419967</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.5920968650956</v>
+        <v>295.5920968650477</v>
       </c>
       <c r="GF3" t="n">
-        <v>134591.4165803776</v>
+        <v>134591.416559691</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.586979527513492</v>
+        <v>1.586979527269722</v>
       </c>
       <c r="GH3" t="n">
-        <v>336974.6309325041</v>
+        <v>336974.6309325119</v>
       </c>
       <c r="GI3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3790.093061284515</v>
+        <v>3790.093061328611</v>
       </c>
       <c r="GK3" t="n">
-        <v>-698537.1242102488</v>
+        <v>-698537.1242231018</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.8543580608813</v>
+        <v>717.8543580608273</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.765618721089</v>
+        <v>1006.765618720749</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402465008975685</v>
+        <v>1.402465008975317</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.9995326648233315</v>
+        <v>0.999532664823402</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.8011163636688</v>
+        <v>344.8011163636197</v>
       </c>
       <c r="GQ3" t="n">
-        <v>188672.5202959354</v>
+        <v>188672.5202669003</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.300188911620444e-06</v>
+        <v>5.300188912436098e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>134529.2175479913</v>
+        <v>134529.2175273237</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.43332948950859e-06</v>
+        <v>7.433329490650567e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395573843601162</v>
+        <v>0.003395573843599795</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832907665248154e-05</v>
+        <v>1.832907665247623e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.02606695184420988</v>
+        <v>0.02606695184419967</v>
       </c>
       <c r="GX3" t="n">
-        <v>134591.4165803776</v>
+        <v>134591.416559691</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.586979527513492</v>
+        <v>1.586979527269722</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.586979527513492</v>
+        <v>1.586979527269722</v>
       </c>
       <c r="HA3" t="n">
-        <v>336974.6309325041</v>
+        <v>336974.6309325119</v>
       </c>
       <c r="HB3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="HC3" t="n">
-        <v>3790.093061284515</v>
+        <v>3790.093061328611</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.8543580608813</v>
+        <v>717.8543580608273</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.765618721089</v>
+        <v>1006.765618720749</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.8011163636688</v>
+        <v>344.8011163636197</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.9995326648233315</v>
+        <v>0.999532664823402</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832907665248154e-05</v>
+        <v>1.832907665247623e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606695184420988</v>
+        <v>0.02606695184419967</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01619337326055618</v>
+        <v>0.01619337326394658</v>
       </c>
       <c r="HK3" t="n">
-        <v>-1.972005757105038e-07</v>
+        <v>-1.972005760344284e-07</v>
       </c>
       <c r="HL3" t="n">
         <v>0.01379727827868041</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.02510093007318012</v>
+        <v>0.02510093007318003</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.05509138441184101</v>
+        <v>0.05509138441523098</v>
       </c>
       <c r="HP3" t="n">
-        <v>5.578240071843488e-06</v>
+        <v>5.578243635805114e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9800024765678763</v>
+        <v>0.9800024810725054</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9800024765678763</v>
+        <v>0.9800024810725054</v>
       </c>
       <c r="HS3" t="n">
-        <v>520038.1635490432</v>
+        <v>520038.1641773899</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.776362991773886</v>
+        <v>2.776362991773512</v>
       </c>
       <c r="HU3" t="n">
         <v>421784.4310885898</v>
@@ -10244,733 +10244,733 @@
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>1485.077873539936</v>
+        <v>1485.077868917841</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006324918181565277</v>
+        <v>0.006324918159083205</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-7.113564400785996e-08</v>
+        <v>-7.113564331075131e-08</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.00998599887292412</v>
+        <v>0.009985998849457903</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005468522077972311</v>
+        <v>0.005468522063483501</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02459644701572052</v>
+        <v>0.02459644690153473</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.002168220951636961</v>
+        <v>0.002168220865570384</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.01188668131071952</v>
+        <v>0.01188668132027357</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.03204646804973708</v>
+        <v>0.0320464679756825</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.04267186614227201</v>
+        <v>0.04267186606837348</v>
       </c>
       <c r="II3" t="n">
-        <v>0.1133696834700861</v>
+        <v>0.1133696831314347</v>
       </c>
       <c r="IJ3" t="n">
-        <v>2.025246359504962e-10</v>
+        <v>5.657189994234813e-11</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>272.2090737016671</v>
+        <v>272.2090735227434</v>
       </c>
       <c r="IM3" t="n">
-        <v>111.9871314173235</v>
+        <v>111.9871314096022</v>
       </c>
       <c r="IN3" t="n">
-        <v>248.1061510773942</v>
+        <v>248.1061508845737</v>
       </c>
       <c r="IO3" t="n">
-        <v>65.70711545068366</v>
+        <v>65.70711543546795</v>
       </c>
       <c r="IP3" t="n">
-        <v>139.2747152580332</v>
+        <v>139.2747151371871</v>
       </c>
       <c r="IQ3" t="n">
-        <v>111.9871314173235</v>
+        <v>111.9871314096022</v>
       </c>
       <c r="IR3" t="n">
-        <v>82.80295107739423</v>
+        <v>82.80295088457368</v>
       </c>
       <c r="IS3" t="n">
-        <v>36.47911089388502</v>
+        <v>36.47911083199131</v>
       </c>
       <c r="IT3" t="n">
-        <v>258.629420441816</v>
+        <v>258.6294204902638</v>
       </c>
       <c r="IU3" t="n">
-        <v>84817.68654407952</v>
+        <v>84817.68660796271</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.143266862115016</v>
+        <v>1.143266862761779</v>
       </c>
       <c r="IW3" t="n">
-        <v>310546.6624957406</v>
+        <v>310546.6625303363</v>
       </c>
       <c r="IX3" t="n">
-        <v>384735.5411860306</v>
+        <v>384735.5412345344</v>
       </c>
       <c r="IY3" t="n">
-        <v>3788.663779703847</v>
+        <v>3788.663779675336</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-595124.3764076754</v>
+        <v>-595124.3765353501</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.5121736268039</v>
+        <v>716.512173628113</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.172733107324</v>
+        <v>1005.172733109128</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.402869023172898</v>
+        <v>1.402869023172853</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993201636385257</v>
+        <v>0.9993201636386678</v>
       </c>
       <c r="JE3" t="n">
-        <v>322.5008365190405</v>
+        <v>322.500836549288</v>
       </c>
       <c r="JF3" t="n">
-        <v>118907.5159337515</v>
+        <v>118907.516023324</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.40989732353961e-06</v>
+        <v>8.409897317204471e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>84760.24059952219</v>
+        <v>84760.24066337441</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.179798444325838e-05</v>
+        <v>1.179798443437063e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.003880006727097049</v>
+        <v>0.003880006726372997</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.648045578824637e-05</v>
+        <v>1.648045579073744e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02323360407804542</v>
+        <v>0.02323360408184198</v>
       </c>
       <c r="JM3" t="n">
-        <v>84817.68654407952</v>
+        <v>84817.68660796271</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.143266862115016</v>
+        <v>1.143266862761779</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.143266862115016</v>
+        <v>1.143266862761779</v>
       </c>
       <c r="JP3" t="n">
-        <v>310546.6624957406</v>
+        <v>310546.6625303363</v>
       </c>
       <c r="JQ3" t="n">
-        <v>384735.5411860306</v>
+        <v>384735.5412345344</v>
       </c>
       <c r="JR3" t="n">
-        <v>3788.663779703847</v>
+        <v>3788.663779675336</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.5121736268039</v>
+        <v>716.512173628113</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.172733107324</v>
+        <v>1005.172733109128</v>
       </c>
       <c r="JU3" t="n">
-        <v>322.5008365190405</v>
+        <v>322.500836549288</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993201636385257</v>
+        <v>0.9993201636386678</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.648045578824637e-05</v>
+        <v>1.648045579073744e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02323360407804542</v>
+        <v>0.02323360408184198</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.5936554167379</v>
+        <v>295.5936554165689</v>
       </c>
       <c r="JZ3" t="n">
-        <v>135263.5641228162</v>
+        <v>135263.5641359379</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.594900121492883</v>
+        <v>1.594900121648588</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.3779074007</v>
+        <v>336974.3779072525</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310887903</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.663779709048</v>
+        <v>3788.663779680537</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698120.5447004017</v>
+        <v>-698120.5446915345</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.8561088314282</v>
+        <v>717.8561088314536</v>
       </c>
       <c r="KG3" t="n">
-        <v>1006.776654763021</v>
+        <v>1006.776654763231</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402476962133701</v>
+        <v>1.402476962133943</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.9995303767050683</v>
+        <v>0.9995303767050211</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.802714355247</v>
+        <v>344.8027143551621</v>
       </c>
       <c r="KK3" t="n">
-        <v>189615.9399166339</v>
+        <v>189615.9399350522</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.273818226672597e-06</v>
+        <v>5.273818226160327e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>135200.7519810921</v>
+        <v>135200.7519942013</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.396408565389125e-06</v>
+        <v>7.396408564671958e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395618189364303</v>
+        <v>0.003395618189367485</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.832924920427678e-05</v>
+        <v>1.832924920427048e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606728356297035</v>
+        <v>0.02606728356296194</v>
       </c>
       <c r="KR3" t="n">
-        <v>135263.5641228162</v>
+        <v>135263.5641359379</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.594900121492883</v>
+        <v>1.594900121648588</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594900121492883</v>
+        <v>1.594900121648588</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.3779074007</v>
+        <v>336974.3779072525</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310887903</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KW3" t="n">
-        <v>3788.663779709048</v>
+        <v>3788.663779680537</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.8561088314282</v>
+        <v>717.8561088314536</v>
       </c>
       <c r="KY3" t="n">
-        <v>1006.776654763021</v>
+        <v>1006.776654763231</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.802714355247</v>
+        <v>344.8027143551621</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9995303767050683</v>
+        <v>0.9995303767050211</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.832924920427678e-05</v>
+        <v>1.832924920427048e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606728356297035</v>
+        <v>0.02606728356296194</v>
       </c>
       <c r="LD3" t="n">
-        <v>268.3105684450246</v>
+        <v>268.3105684768627</v>
       </c>
       <c r="LE3" t="n">
-        <v>96432.56304094337</v>
+        <v>96432.56309046103</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.252868274422674</v>
+        <v>1.252868274917227</v>
       </c>
       <c r="LG3" t="n">
-        <v>317464.8294772561</v>
+        <v>317464.8294999888</v>
       </c>
       <c r="LH3" t="n">
-        <v>394434.2643409331</v>
+        <v>394434.2643728066</v>
       </c>
       <c r="LI3" t="n">
-        <v>3788.663779710498</v>
+        <v>3788.663779681984</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-622104.2680402657</v>
+        <v>-622104.2681213658</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.7910622957288</v>
+        <v>716.7910622967557</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.518949160058</v>
+        <v>1005.518949161474</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.402806203999804</v>
+        <v>1.402806203999769</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993653520369191</v>
+        <v>0.9993653520370164</v>
       </c>
       <c r="LO3" t="n">
-        <v>328.488987895977</v>
+        <v>328.4889879154949</v>
       </c>
       <c r="LP3" t="n">
-        <v>135190.7701562414</v>
+        <v>135190.7702256715</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.396954679999895e-06</v>
+        <v>7.396954676201033e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>96371.6654308868</v>
+        <v>96371.66548038286</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.037649391580923e-05</v>
+        <v>1.037649391047991e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003740274706680747</v>
+        <v>0.003740274706239069</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.697436497179899e-05</v>
+        <v>1.697436497341302e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02398732772480854</v>
+        <v>0.02398732772727671</v>
       </c>
       <c r="LW3" t="n">
-        <v>96432.56304094337</v>
+        <v>96432.56309046103</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.252868274422674</v>
+        <v>1.252868274917227</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.252868274422674</v>
+        <v>1.252868274917227</v>
       </c>
       <c r="LZ3" t="n">
-        <v>317464.8294772561</v>
+        <v>317464.8294999888</v>
       </c>
       <c r="MA3" t="n">
-        <v>394434.2643409331</v>
+        <v>394434.2643728066</v>
       </c>
       <c r="MB3" t="n">
-        <v>3788.663779710498</v>
+        <v>3788.663779681984</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.7910622957288</v>
+        <v>716.7910622967557</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.518949160058</v>
+        <v>1005.518949161474</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.488987895977</v>
+        <v>328.4889879154949</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993653520369191</v>
+        <v>0.9993653520370164</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.697436497179899e-05</v>
+        <v>1.697436497341302e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02398732772480854</v>
+        <v>0.02398732772727671</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8440569538975314</v>
+        <v>0.8440569532635663</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4318584620161453</v>
+        <v>0.4318584616009258</v>
       </c>
       <c r="MK3" t="n">
-        <v>251782.2369191279</v>
+        <v>251782.2368050407</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.748629348511963</v>
+        <v>2.748629349877391</v>
       </c>
       <c r="MM3" t="n">
-        <v>380771.6903759134</v>
+        <v>380771.6904075863</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>165.5221923512326</v>
+        <v>165.5221906912167</v>
       </c>
       <c r="MP3" t="n">
-        <v>139.827287346474</v>
+        <v>139.8272864325695</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-88.57723112676877</v>
+        <v>-88.57722946741822</v>
       </c>
       <c r="MR3" t="n">
-        <v>-32.35327733666735</v>
+        <v>-32.35327702073631</v>
       </c>
       <c r="MS3" t="n">
-        <v>289.8395135170279</v>
+        <v>289.8395116226505</v>
       </c>
       <c r="MT3" t="n">
-        <v>139.827287346474</v>
+        <v>139.8272864325695</v>
       </c>
       <c r="MU3" t="n">
-        <v>-253.8804311267688</v>
+        <v>-253.8804294674182</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>226.3584239051048</v>
+        <v>226.358424485183</v>
       </c>
       <c r="MX3" t="n">
-        <v>50679.21630871051</v>
+        <v>50679.21679530053</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7805498197859331</v>
+        <v>0.7805498252794804</v>
       </c>
       <c r="MZ3" t="n">
-        <v>287503.2055730586</v>
+        <v>287503.2059872663</v>
       </c>
       <c r="NA3" t="n">
-        <v>352430.7925432398</v>
+        <v>352430.7931238781</v>
       </c>
       <c r="NB3" t="n">
-        <v>3802.968979172453</v>
+        <v>3802.968978983568</v>
       </c>
       <c r="NC3" t="n">
-        <v>-508403.2717422421</v>
+        <v>-508403.2733248672</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8708609810961</v>
+        <v>715.8708609890062</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.24446611775</v>
+        <v>1004.244466130203</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402829086717456</v>
+        <v>1.402829086719351</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992550947767843</v>
+        <v>0.9992550947774546</v>
       </c>
       <c r="NH3" t="n">
-        <v>301.6861737385449</v>
+        <v>301.6861741255125</v>
       </c>
       <c r="NI3" t="n">
-        <v>71041.38859048476</v>
+        <v>71041.38927272455</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.407630143273888e-05</v>
+        <v>1.407630129755834e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>50641.513825977</v>
+        <v>50641.51431223997</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.974664508324871e-05</v>
+        <v>1.974664489364019e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004431251472710682</v>
+        <v>0.004431251461386809</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.477914113563713e-05</v>
+        <v>1.477914116701042e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.02065511745776435</v>
+        <v>0.0206551175050493</v>
       </c>
       <c r="NP3" t="n">
-        <v>50679.21630871051</v>
+        <v>50679.21679530053</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7805498197859331</v>
+        <v>0.7805498252794804</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7805498197859331</v>
+        <v>0.7805498252794804</v>
       </c>
       <c r="NS3" t="n">
-        <v>287503.2055730586</v>
+        <v>287503.2059872663</v>
       </c>
       <c r="NT3" t="n">
-        <v>352430.7925432398</v>
+        <v>352430.7931238781</v>
       </c>
       <c r="NU3" t="n">
-        <v>3802.968979172453</v>
+        <v>3802.968978983568</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8708609810961</v>
+        <v>715.8708609890062</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.24446611775</v>
+        <v>1004.244466130203</v>
       </c>
       <c r="NX3" t="n">
-        <v>301.6861737385449</v>
+        <v>301.6861741255125</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992550947767843</v>
+        <v>0.9992550947774546</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.477914113563713e-05</v>
+        <v>1.477914116701042e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.02065511745776435</v>
+        <v>0.0206551175050493</v>
       </c>
       <c r="OB3" t="n">
-        <v>240.0397807156201</v>
+        <v>240.0397810212126</v>
       </c>
       <c r="OC3" t="n">
-        <v>62200.81035417353</v>
+        <v>62200.81067144463</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.90337024212836</v>
+        <v>0.9033702455857877</v>
       </c>
       <c r="OE3" t="n">
-        <v>297275.4182659847</v>
+        <v>297275.4184841676</v>
       </c>
       <c r="OF3" t="n">
-        <v>366129.5906235189</v>
+        <v>366129.5909293876</v>
       </c>
       <c r="OG3" t="n">
-        <v>3802.96897916751</v>
+        <v>3802.968978978626</v>
       </c>
       <c r="OH3" t="n">
-        <v>-546734.249204156</v>
+        <v>-546734.2500151062</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.0856861233697</v>
+        <v>716.0856861291209</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.546741556223</v>
+        <v>1004.546741564874</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402830360978835</v>
+        <v>1.402830360979649</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9992883192008863</v>
+        <v>0.9992883192012959</v>
       </c>
       <c r="OM3" t="n">
-        <v>310.6800962514405</v>
+        <v>310.6800964494223</v>
       </c>
       <c r="ON3" t="n">
-        <v>87195.21290870398</v>
+        <v>87195.21335355303</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.146851950515942e-05</v>
+        <v>1.146851944664979e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>62156.63371290517</v>
+        <v>62156.63402997732</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.60883873573156e-05</v>
+        <v>1.608838727524584e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.004179180517690071</v>
+        <v>0.004179180512388858</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.5510784954917e-05</v>
+        <v>1.551078497108657e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.02176029261110729</v>
+        <v>0.021760292635596</v>
       </c>
       <c r="OU3" t="n">
-        <v>62200.81035417353</v>
+        <v>62200.81067144463</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.90337024212836</v>
+        <v>0.9033702455857877</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.90337024212836</v>
+        <v>0.9033702455857877</v>
       </c>
       <c r="OX3" t="n">
-        <v>297275.4182659847</v>
+        <v>297275.4184841676</v>
       </c>
       <c r="OY3" t="n">
-        <v>366129.5906235189</v>
+        <v>366129.5909293876</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3802.96897916751</v>
+        <v>3802.968978978626</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.0856861233697</v>
+        <v>716.0856861291209</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.546741556223</v>
+        <v>1004.546741564874</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.6800962514405</v>
+        <v>310.6800964494223</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9992883192008863</v>
+        <v>0.9992883192012959</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.5510784954917e-05</v>
+        <v>1.551078497108657e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.02176029261110729</v>
+        <v>0.021760292635596</v>
       </c>
       <c r="PG3" t="n">
-        <v>268.2973288597819</v>
+        <v>268.2973288915612</v>
       </c>
       <c r="PH3" t="n">
-        <v>91741.76113839037</v>
+        <v>91741.76123654816</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.191946947295283</v>
+        <v>1.191946948429695</v>
       </c>
       <c r="PJ3" t="n">
-        <v>317466.2739900804</v>
+        <v>317466.2740126556</v>
       </c>
       <c r="PK3" t="n">
-        <v>394434.2643411334</v>
+        <v>394434.2643728065</v>
       </c>
       <c r="PL3" t="n">
-        <v>3802.9689791618</v>
+        <v>3802.968978972915</v>
       </c>
       <c r="PM3" t="n">
-        <v>-625892.154504589</v>
+        <v>-625892.1545430942</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.7755537919876</v>
+        <v>716.7755537931746</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.421845613705</v>
+        <v>1005.421845616153</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.40270108305826</v>
+        <v>1.402701083059352</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9993959110408565</v>
+        <v>0.9993959110406136</v>
       </c>
       <c r="PR3" t="n">
-        <v>328.4785706565567</v>
+        <v>328.4785706760595</v>
       </c>
       <c r="PS3" t="n">
-        <v>128608.895995819</v>
+        <v>128608.8961334919</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.775511890192332e-06</v>
+        <v>7.775511881868826e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>91686.60204882537</v>
+        <v>91686.60214690237</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.090671894970516e-05</v>
+        <v>1.090671893803827e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003739816908000766</v>
+        <v>0.003739816907566859</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.697298318804769e-05</v>
+        <v>1.697298318966623e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.0239846427459956</v>
+        <v>0.02398464274847676</v>
       </c>
       <c r="PZ3" t="n">
-        <v>91741.76113839037</v>
+        <v>91741.76123654816</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.191946947295283</v>
+        <v>1.191946948429695</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.191946947295283</v>
+        <v>1.191946948429695</v>
       </c>
       <c r="QC3" t="n">
-        <v>317466.2739900804</v>
+        <v>317466.2740126556</v>
       </c>
       <c r="QD3" t="n">
-        <v>394434.2643411334</v>
+        <v>394434.2643728065</v>
       </c>
       <c r="QE3" t="n">
-        <v>3802.9689791618</v>
+        <v>3802.968978972915</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.7755537919876</v>
+        <v>716.7755537931746</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.421845613705</v>
+        <v>1005.421845616153</v>
       </c>
       <c r="QH3" t="n">
-        <v>328.4785706565567</v>
+        <v>328.4785706760595</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993959110408565</v>
+        <v>0.9993959110406136</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.697298318804769e-05</v>
+        <v>1.697298318966623e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.0239846427459956</v>
+        <v>0.02398464274847676</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.02457225874421945</v>
+        <v>0.02457225874547209</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.002612288261248154</v>
+        <v>0.002612288202396018</v>
       </c>
       <c r="QN3" t="n">
-        <v>0.01187896609580816</v>
+        <v>0.01187896609867858</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.03214632321331696</v>
+        <v>0.03214632318790574</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04300932502799512</v>
+        <v>0.04300932498673876</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.1142191613425878</v>
+        <v>0.1142191612211912</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.637671306863042e-05</v>
+        <v>1.637673054183386e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5486568718083902</v>
+        <v>0.5486568656021783</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9607318423820645</v>
+        <v>0.9607318348704527</v>
       </c>
       <c r="QU3" t="n">
-        <v>398917.8178759516</v>
+        <v>398917.8172294204</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.748610138212223</v>
+        <v>2.748610139592288</v>
       </c>
       <c r="QW3" t="n">
-        <v>380771.6903759134</v>
+        <v>380771.6904075863</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>2819.854620989587</v>
+        <v>2819.854616645433</v>
       </c>
       <c r="QZ3" t="n">
-        <v>6.469776394959943</v>
+        <v>6.469776254562653</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.008972184743216507</v>
+        <v>0.008972184717570723</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.0007909141889381803</v>
+        <v>0.0007909141589541832</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.0116897709464321</v>
+        <v>0.01168977094027339</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01556565735374584</v>
+        <v>0.01556565735455865</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004335971802567694</v>
+        <v>0.004335971813788169</v>
       </c>
     </row>
   </sheetData>
@@ -11751,19 +11751,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>2.876203360216564e-08</v>
+        <v>4.223294938868327e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>6.241079308356832e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11782,19 +11782,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>1.221164959822241e-08</v>
+        <v>5.85479758099083e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.861668791642192e-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
